--- a/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
+++ b/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE-Capstone\Hardware Design\EVCU Rev A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D860F88C-D751-470E-BB29-22C3F82247BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6BF6AA-8FD3-46DB-B2E0-E71D95687EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
+++ b/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE-Capstone\Hardware Design\EVCU Rev A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6BF6AA-8FD3-46DB-B2E0-E71D95687EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C980697C-5370-47CC-A9D3-F49C7C7F7ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
+++ b/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE-Capstone\Hardware Design\EVCU Rev A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C980697C-5370-47CC-A9D3-F49C7C7F7ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CF92A4-97F2-493C-A071-51851C2C1A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Value</t>
   </si>
@@ -88,13 +99,89 @@
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/onsemi/MC7805CDTRKG/921037</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>ECS-2520MV-160-CN-TR</t>
+  </si>
+  <si>
+    <t>OSC XO 16.000MHZ CMOS SMD</t>
+  </si>
+  <si>
+    <t>16 MHz XO (Standard) HCMOS Oscillator 1.6V ~ 3.6V Enable/Disable 4-SMD, No Lead</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/ecs-inc/ECS-2520MV-160-CN-TR/9742387</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>MPU-6500</t>
+  </si>
+  <si>
+    <t>IMU ACCEL/GYRO 3-AXIS I2C 24QFN</t>
+  </si>
+  <si>
+    <t>Accelerometer, Gyroscope, 6 Axis Sensor I²C, SPI Output</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/tdk-invensense/MPU-6500/4385412</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>MCP3208T-BI/SL</t>
+  </si>
+  <si>
+    <t>IC ADC 12BIT SAR 16SOIC</t>
+  </si>
+  <si>
+    <t>12 Bit Analog to Digital Converter 4, 8 Input 1 SAR 16-SOIC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/microchip-technology/MCP3208T-BI-SL/319445</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>LM358M/NOPB</t>
+  </si>
+  <si>
+    <t>IC OPAMP GP 2 CIRCUIT 8SOIC</t>
+  </si>
+  <si>
+    <t>General Purpose Amplifier 2 Circuit 8-SOIC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/texas-instruments/LM358M-NOPB/32601</t>
+  </si>
+  <si>
+    <t>Component Cost</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-[$$-1009]* #,##0.00_-;\-[$$-1009]* #,##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +193,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -172,12 +266,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -185,8 +322,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -466,11 +609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,12 +624,13 @@
     <col min="4" max="4" width="18.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="4" customWidth="1"/>
     <col min="6" max="7" width="18.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="78.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="79.28515625" style="4" customWidth="1"/>
     <col min="9" max="9" width="15.140625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="10" max="10" width="15.42578125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -511,12 +655,21 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
@@ -535,12 +688,21 @@
       <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="8">
+        <v>35.44</v>
+      </c>
+      <c r="J2" s="11">
+        <f>SUM(I:I)</f>
+        <v>65.22999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
@@ -559,12 +721,17 @@
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="8">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
@@ -583,48 +750,127 @@
       <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="8">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="8">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="8">
+        <v>9.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -633,8 +879,9 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -643,8 +890,9 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -653,8 +901,9 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -663,8 +912,9 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -673,8 +923,9 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -683,8 +934,9 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -693,8 +945,9 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -703,8 +956,9 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -713,8 +967,9 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -723,8 +978,9 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -733,8 +989,9 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -743,8 +1000,9 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -753,8 +1011,9 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -763,8 +1022,9 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -773,8 +1033,9 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -783,8 +1044,9 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -793,8 +1055,9 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -803,8 +1066,9 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -813,8 +1077,9 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -823,8 +1088,9 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -833,8 +1099,9 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -843,8 +1110,9 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -853,22 +1121,17 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="I31" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{3F3540AF-92CF-4D86-AAFC-D74F90E4BD37}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{0298B08B-A7AB-431D-B5A5-36B434DAB8A8}"/>
     <hyperlink ref="H4" r:id="rId3" xr:uid="{70E96641-DA65-47B4-80A5-EE169E88E5E5}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{218ED680-CFFA-4E53-AFDB-32D601A016FE}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{B4A35373-2A45-4C60-B7F0-8795CE09423A}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{C4A01BE6-7853-4F51-9613-76BA9A9F8C2D}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{9AEDAD72-7083-4472-919A-E0DDF0010270}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
+++ b/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE-Capstone\Hardware Design\EVCU Rev A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CF92A4-97F2-493C-A071-51851C2C1A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60047FB-3B5F-47AF-BB49-7FD0DBDC39DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1800" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>Value</t>
   </si>
@@ -171,6 +171,21 @@
   </si>
   <si>
     <t>U2</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>ESDCAN24-2BLY</t>
+  </si>
+  <si>
+    <t>TVS DIODE 24VWM 40VC SOT23-3</t>
+  </si>
+  <si>
+    <t>40V Clamp 5.5A (8/20µs) Ipp Tvs Diode Surface Mount SOT-23-3</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/stmicroelectronics/ESDCAN24-2BLY/3661709</t>
   </si>
 </sst>
 </file>
@@ -179,7 +194,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-[$$-1009]* #,##0.00_-;\-[$$-1009]* #,##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-1009]* #,##0.00_-;\-[$$-1009]* #,##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -323,10 +338,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -611,9 +626,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +708,7 @@
       </c>
       <c r="J2" s="11">
         <f>SUM(I:I)</f>
-        <v>65.22999999999999</v>
+        <v>65.939999999999984</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -871,15 +886,33 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="8"/>
+      <c r="A9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -1132,6 +1165,7 @@
     <hyperlink ref="H6" r:id="rId5" xr:uid="{B4A35373-2A45-4C60-B7F0-8795CE09423A}"/>
     <hyperlink ref="H7" r:id="rId6" xr:uid="{C4A01BE6-7853-4F51-9613-76BA9A9F8C2D}"/>
     <hyperlink ref="H8" r:id="rId7" xr:uid="{9AEDAD72-7083-4472-919A-E0DDF0010270}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{B9FAB1BE-3AAE-4E4B-A0D5-2FB70E9C1AE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
+++ b/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE-Capstone\Hardware Design\EVCU Rev A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60047FB-3B5F-47AF-BB49-7FD0DBDC39DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F678230-C551-40CE-A274-2DDF3FA3AA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1800" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>Value</t>
   </si>
@@ -186,6 +186,51 @@
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/stmicroelectronics/ESDCAN24-2BLY/3661709</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>EMIF06-MSD02N16</t>
+  </si>
+  <si>
+    <t>FILTER RC(PI) 45 OHM/20PF SMD</t>
+  </si>
+  <si>
+    <t>RC (Pi) EMI Filter 2nd Order Low Pass 6 Channel R = 45Ohms, C = 20pF (Total) 16-UFDFN Exposed Pad</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/stmicroelectronics/EMIF06-MSD02N16/2043592?s=N4IgTCBcDaIKIFkCSAxADANgLQIMoBE0wA5ARgxAF0BfIA</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>ESDALC6V1W5</t>
+  </si>
+  <si>
+    <t>TVS DIODE 3VWM SOT323-5</t>
+  </si>
+  <si>
+    <t>Clamp Ipp Tvs Diode Surface Mount SOT-323-5</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/stmicroelectronics/ESDALC6V1W5/1037997?s=N4IgTCBcDaIKIGUAiBBAMgYQGwDUCMA6iALoC%2BQA</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SMBJ3V3-E3/5B</t>
+  </si>
+  <si>
+    <t>TVS DIODE 3.3VWM 10.3VC DO214AA</t>
+  </si>
+  <si>
+    <t>10.3V Clamp 200A (8/20µs) Ipp Tvs Diode Surface Mount DO-214AA (SMBJ)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/vishay-general-semiconductor-diodes-division/SMBJ3V3-E3-5B/2147834</t>
   </si>
 </sst>
 </file>
@@ -626,9 +671,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +683,8 @@
     <col min="3" max="3" width="23.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="18.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="79.28515625" style="4" customWidth="1"/>
     <col min="9" max="9" width="15.140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" style="4" customWidth="1"/>
@@ -708,7 +754,7 @@
       </c>
       <c r="J2" s="11">
         <f>SUM(I:I)</f>
-        <v>65.939999999999984</v>
+        <v>69.389999999999986</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -915,37 +961,91 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="8"/>
+      <c r="A10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="8"/>
+      <c r="A11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="8"/>
+      <c r="A12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
@@ -1166,6 +1266,9 @@
     <hyperlink ref="H7" r:id="rId6" xr:uid="{C4A01BE6-7853-4F51-9613-76BA9A9F8C2D}"/>
     <hyperlink ref="H8" r:id="rId7" xr:uid="{9AEDAD72-7083-4472-919A-E0DDF0010270}"/>
     <hyperlink ref="H9" r:id="rId8" xr:uid="{B9FAB1BE-3AAE-4E4B-A0D5-2FB70E9C1AE4}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{1AE3D033-08AE-4122-AC2F-63603E4FC5D2}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{7C34C00A-EDD8-4745-9054-77EDF0EB5123}"/>
+    <hyperlink ref="H12" r:id="rId11" xr:uid="{EC50A1A2-0D14-4030-BC18-880628CD4579}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
+++ b/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE-Capstone\Hardware Design\EVCU Rev A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F678230-C551-40CE-A274-2DDF3FA3AA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089A0FE3-0B6E-4507-A7C5-6980F70C0B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
   <si>
     <t>Value</t>
   </si>
@@ -231,6 +231,297 @@
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/vishay-general-semiconductor-diodes-division/SMBJ3V3-E3-5B/2147834</t>
+  </si>
+  <si>
+    <t>C4, C7, C9, C10, C11, C14, C15, C16, C17, C18, C19</t>
+  </si>
+  <si>
+    <t>VJ0603Y104JXQPW1BC</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 10V X7R 0603</t>
+  </si>
+  <si>
+    <t>0.1 µF ±5% 10V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/vishay-vitramon/VJ0603Y104JXQPW1BC/8305311</t>
+  </si>
+  <si>
+    <t>C20, C21, C24, C25, C26, C28, C29</t>
+  </si>
+  <si>
+    <t>C1, C8, C12</t>
+  </si>
+  <si>
+    <t>CL10A475KP8NNNC</t>
+  </si>
+  <si>
+    <t>CAP CER 4.7UF 10V X5R 0603</t>
+  </si>
+  <si>
+    <t>4.7 µF ±10% 10V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/samsung-electro-mechanics/CL10A475KP8NNNC/3886702</t>
+  </si>
+  <si>
+    <t>C2, C22</t>
+  </si>
+  <si>
+    <t>CL10A106KP8NNNC</t>
+  </si>
+  <si>
+    <t>CAP CER 10UF 10V X5R 0603</t>
+  </si>
+  <si>
+    <t>10 µF ±10% 10V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/samsung-electro-mechanics/CL10A106KP8NNNC/3886850</t>
+  </si>
+  <si>
+    <t>GRM188R61A334KA61D</t>
+  </si>
+  <si>
+    <t>C3, C13</t>
+  </si>
+  <si>
+    <t>CAP CER 0.33UF 10V X5R 0603</t>
+  </si>
+  <si>
+    <t>0.33 µF ±10% 10V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/murata-electronics/GRM188R61A334KA61D/587064</t>
+  </si>
+  <si>
+    <t>C5, C23</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 10V X7R 0603</t>
+  </si>
+  <si>
+    <t>CL10B105KP8NNNC</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics</t>
+  </si>
+  <si>
+    <t>1 µF ±10% 10V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/samsung-electro-mechanics/CL10B105KP8NNNC/3887604</t>
+  </si>
+  <si>
+    <t>C6, C27</t>
+  </si>
+  <si>
+    <t>CAP CER 10000PF 10V X7R 0603</t>
+  </si>
+  <si>
+    <t>Würth Elektronik</t>
+  </si>
+  <si>
+    <t>10000 pF ±10% 10V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/885012206014/5453788</t>
+  </si>
+  <si>
+    <t>36502C39NJTDG</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>FIXED IND 39NH 1A 150 MOHM SMD</t>
+  </si>
+  <si>
+    <t>TE Connectivity Passive Product</t>
+  </si>
+  <si>
+    <t>39 nH Unshielded Wirewound Inductor 1 A 150mOhm Max Nonstandard</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/te-connectivity-passive-product/36502C39NJTDG/5399639</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R6, R7</t>
+  </si>
+  <si>
+    <t>R8, R9, R15, R16, R17, R18</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11, R12</t>
+  </si>
+  <si>
+    <t>R13, R14</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>RNCP0805FTD10K0</t>
+  </si>
+  <si>
+    <t>RES 10K OHM 1% 1/4W 0805</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics Inc</t>
+  </si>
+  <si>
+    <t>10 kOhms ±1% 0.25W, 1/4W Chip Resistor 0805 (2012 Metric) Anti-Sulfur Thin Film</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RNCP0805FTD10K0/2240262</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD2200F</t>
+  </si>
+  <si>
+    <t>RES 220 OHM 1% 1/4W 0805</t>
+  </si>
+  <si>
+    <t>KOA Speer Electronics, Inc.</t>
+  </si>
+  <si>
+    <t>220 Ohms ±1% 0.25W, 1/4W Chip Resistor 0805 (2012 Metric) Automotive AEC-Q200, Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/koa-speer-electronics-inc/RK73H2ATTD2200F/10234286</t>
+  </si>
+  <si>
+    <t>AC0805FR-7W100KL</t>
+  </si>
+  <si>
+    <t>RES 100 KOHM 1% 1/4W 0805</t>
+  </si>
+  <si>
+    <t>YAGEO</t>
+  </si>
+  <si>
+    <t>100 kOhms ±1% 0.25W, 1/4W Chip Resistor 0805 (2012 Metric) Automotive AEC-Q200, Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/AC0805FR-7W100KL/12698912</t>
+  </si>
+  <si>
+    <t>RNCP0805FTD100R</t>
+  </si>
+  <si>
+    <t>RES 100 OHM 1% 1/4W 0805</t>
+  </si>
+  <si>
+    <t>100 Ohms ±1% 0.25W, 1/4W Chip Resistor 0805 (2012 Metric) Anti-Sulfur Thin Film</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RNCP0805FTD100R/2240209</t>
+  </si>
+  <si>
+    <t>RK73H2ATTD3302F</t>
+  </si>
+  <si>
+    <t>RES 33K OHM 1% 1/4W 0805</t>
+  </si>
+  <si>
+    <t>33 kOhms ±1% 0.25W, 1/4W Chip Resistor 0805 (2012 Metric) Automotive AEC-Q200, Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/koa-speer-electronics-inc/RK73H2ATTD3302F/10234099</t>
+  </si>
+  <si>
+    <t>ERJ-PB6D3402V</t>
+  </si>
+  <si>
+    <t>RES SMD 34K OHM 0.5% 1/4W 0805</t>
+  </si>
+  <si>
+    <t>Panasonic Electronic Components</t>
+  </si>
+  <si>
+    <t>34 kOhms ±0.5% 0.25W, 1/4W Chip Resistor 0805 (2012 Metric) Automotive AEC-Q200, Pulse Withstanding Thick Film</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/panasonic-electronic-components/ERJ-PB6D3402V/6213975</t>
+  </si>
+  <si>
+    <t>RK73B2ATTD121J</t>
+  </si>
+  <si>
+    <t>RES 120 OHM 5% 1/4W 0805</t>
+  </si>
+  <si>
+    <t>120 Ohms ±5% 0.25W, 1/4W Chip Resistor 0805 (2012 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/koa-speer-electronics-inc/RK73B2ATTD121J/10236600</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 6POS 2.54MM</t>
+  </si>
+  <si>
+    <t>Connector Header Through Hole 6 position 0.100" (2.54mm)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/61300611121/4846833</t>
+  </si>
+  <si>
+    <t>TERM BLK 2POS SIDE ENT 3.5MM PCB</t>
+  </si>
+  <si>
+    <t>Phoenix Contact</t>
+  </si>
+  <si>
+    <t>2 Position Wire to Board Terminal Block Horizontal with Board 0.138" (3.50mm) Through Hole</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/phoenix-contact/1984617/950849</t>
+  </si>
+  <si>
+    <t>J1, J3</t>
+  </si>
+  <si>
+    <t>A-DS 09 A/KG-T4S</t>
+  </si>
+  <si>
+    <t>CONN D-SUB PLUG 9POS R/A SLDR</t>
+  </si>
+  <si>
+    <t>Assmann WSW Components</t>
+  </si>
+  <si>
+    <t>9 Position D-Sub Plug, Male Pins Connector</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/assmann-wsw-components/A-DS-09-A-KG-T4S/1241806</t>
+  </si>
+  <si>
+    <t>CONN MICRO SD CARD HINGED TYPE</t>
+  </si>
+  <si>
+    <t>8 Position Card Connector Secure Digital - microSD™ Surface Mount, Right Angle Gold</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/693072010801/3124584</t>
+  </si>
+  <si>
+    <t>JLCPCB PCB Manufacturing Estimate</t>
   </si>
 </sst>
 </file>
@@ -265,7 +556,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,8 +569,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -368,13 +665,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -387,6 +721,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -395,6 +745,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -669,29 +1024,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="37.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="79.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="4" width="23.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="79.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -701,30 +1056,31 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -734,30 +1090,31 @@
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>35.44</v>
       </c>
-      <c r="J2" s="11">
-        <f>SUM(I:I)</f>
-        <v>69.389999999999986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="11">
+        <f>SUM(J:J)</f>
+        <v>135.98999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -767,26 +1124,27 @@
       <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="8">
         <v>2.19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -796,26 +1154,27 @@
       <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="8">
         <v>0.96</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -825,26 +1184,27 @@
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J5" s="8">
         <v>1.87</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -854,26 +1214,27 @@
       <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
         <v>14.28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -883,26 +1244,27 @@
       <c r="C7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>9.11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -912,26 +1274,27 @@
       <c r="C8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="8">
         <v>1.38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -941,26 +1304,27 @@
       <c r="C9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="8">
         <v>0.71</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -970,26 +1334,27 @@
       <c r="C10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="8">
+      <c r="J10" s="8">
         <v>1.8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -999,26 +1364,27 @@
       <c r="C11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="8">
+      <c r="J11" s="8">
         <v>0.87</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>61</v>
       </c>
@@ -1028,247 +1394,675 @@
       <c r="C12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="8">
+      <c r="J12" s="8">
         <v>0.78</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="5">
+        <v>11</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="8">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="5">
+        <v>7</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="8"/>
+      <c r="E17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>885012206014</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="12">
+        <v>885012206014</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="5">
+        <v>6</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>61300611121</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="13">
+        <v>61300611121</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>1984617</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="13">
+        <v>1984617</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>693072010801</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="5">
+        <v>693072010801</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J30" s="8">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J31" s="8">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="17">
+        <v>49.59</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A32:I32"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{3F3540AF-92CF-4D86-AAFC-D74F90E4BD37}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{0298B08B-A7AB-431D-B5A5-36B434DAB8A8}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{70E96641-DA65-47B4-80A5-EE169E88E5E5}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{218ED680-CFFA-4E53-AFDB-32D601A016FE}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{B4A35373-2A45-4C60-B7F0-8795CE09423A}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{C4A01BE6-7853-4F51-9613-76BA9A9F8C2D}"/>
-    <hyperlink ref="H8" r:id="rId7" xr:uid="{9AEDAD72-7083-4472-919A-E0DDF0010270}"/>
-    <hyperlink ref="H9" r:id="rId8" xr:uid="{B9FAB1BE-3AAE-4E4B-A0D5-2FB70E9C1AE4}"/>
-    <hyperlink ref="H10" r:id="rId9" xr:uid="{1AE3D033-08AE-4122-AC2F-63603E4FC5D2}"/>
-    <hyperlink ref="H11" r:id="rId10" xr:uid="{7C34C00A-EDD8-4745-9054-77EDF0EB5123}"/>
-    <hyperlink ref="H12" r:id="rId11" xr:uid="{EC50A1A2-0D14-4030-BC18-880628CD4579}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{3F3540AF-92CF-4D86-AAFC-D74F90E4BD37}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{0298B08B-A7AB-431D-B5A5-36B434DAB8A8}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{70E96641-DA65-47B4-80A5-EE169E88E5E5}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{218ED680-CFFA-4E53-AFDB-32D601A016FE}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{B4A35373-2A45-4C60-B7F0-8795CE09423A}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{C4A01BE6-7853-4F51-9613-76BA9A9F8C2D}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{9AEDAD72-7083-4472-919A-E0DDF0010270}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{B9FAB1BE-3AAE-4E4B-A0D5-2FB70E9C1AE4}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{1AE3D033-08AE-4122-AC2F-63603E4FC5D2}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{7C34C00A-EDD8-4745-9054-77EDF0EB5123}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{EC50A1A2-0D14-4030-BC18-880628CD4579}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{58EBA1AD-4B03-4510-A317-166A2435F370}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{C4E1CB43-81D0-469A-A44B-AAB987EE529F}"/>
+    <hyperlink ref="I15" r:id="rId14" xr:uid="{050CCBEF-6616-49D2-AFF7-823E0BEA0368}"/>
+    <hyperlink ref="I16" r:id="rId15" xr:uid="{9164F1C8-71B2-4E55-8B2D-D53D46C98EEE}"/>
+    <hyperlink ref="I17" r:id="rId16" xr:uid="{952F4C25-B43D-4254-BB1C-32A625164288}"/>
+    <hyperlink ref="I18" r:id="rId17" xr:uid="{543AFC95-D07D-433C-8143-5C3405F232D8}"/>
+    <hyperlink ref="I19" r:id="rId18" xr:uid="{1BA18047-BA72-4DBA-8283-106C57BA6A57}"/>
+    <hyperlink ref="I20" r:id="rId19" xr:uid="{4FF04091-190F-4080-B807-C959FAE045EA}"/>
+    <hyperlink ref="I21" r:id="rId20" xr:uid="{1B38249B-4E29-433C-B9F6-FC03B9AE1DAA}"/>
+    <hyperlink ref="I22" r:id="rId21" xr:uid="{1B8D1368-2CD0-4098-AF2E-B0E1028A7AED}"/>
+    <hyperlink ref="I23" r:id="rId22" xr:uid="{898979A5-FEAD-4DCF-85B3-43004CEE52DD}"/>
+    <hyperlink ref="I24" r:id="rId23" xr:uid="{B2AC82E2-E426-4596-81FB-C0C78DBB74C4}"/>
+    <hyperlink ref="I25" r:id="rId24" xr:uid="{C70145C4-9DD6-4A9D-B907-8F53E809EE65}"/>
+    <hyperlink ref="I26" r:id="rId25" xr:uid="{E213CF88-59DE-4564-9313-C22D47BD50AA}"/>
+    <hyperlink ref="I27" r:id="rId26" xr:uid="{0D82E8F6-D72D-476D-B88F-FACBC5F91199}"/>
+    <hyperlink ref="I28" r:id="rId27" xr:uid="{E8CD3A01-CA32-4757-AF18-5B3E3230EAA1}"/>
+    <hyperlink ref="I29" r:id="rId28" xr:uid="{BA1A0F24-5E7F-4675-BE4A-CFC3B873EAB2}"/>
+    <hyperlink ref="I31" r:id="rId29" xr:uid="{4ECFE6E6-7058-47CC-852C-9406CEEE0D7C}"/>
+    <hyperlink ref="I30" r:id="rId30" xr:uid="{5A56F291-4A99-47F1-A160-A44C7F0BC776}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
+++ b/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE-Capstone\Hardware Design\EVCU Rev A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089A0FE3-0B6E-4507-A7C5-6980F70C0B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99E1286-D737-4CE3-997D-F79E4404BCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="163">
   <si>
     <t>Value</t>
   </si>
@@ -522,15 +522,19 @@
   </si>
   <si>
     <t>JLCPCB PCB Manufacturing Estimate</t>
+  </si>
+  <si>
+    <t>pcb man, major ic, passives</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-1009]* #,##0.00_-;\-[$$-1009]* #,##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -703,12 +707,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -727,6 +732,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,12 +744,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1024,11 +1034,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G36" sqref="G36"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1050,7 @@
     <col min="6" max="6" width="18.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="37.28515625" style="4" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="79.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="79.28515625" style="4" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="15.140625" style="4" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" style="4" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="4"/>
@@ -1111,7 +1121,7 @@
       </c>
       <c r="K2" s="11">
         <f>SUM(J:J)</f>
-        <v>135.98999999999995</v>
+        <v>136.50999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1443,6 +1453,7 @@
       <c r="J13" s="8">
         <v>2.06</v>
       </c>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1901,7 +1912,7 @@
         <v>61300611121</v>
       </c>
       <c r="F28" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>146</v>
@@ -1913,7 +1924,7 @@
         <v>147</v>
       </c>
       <c r="J28" s="8">
-        <v>0.52</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1949,7 +1960,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="15">
         <v>693072010801</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -2013,19 +2024,47 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="17">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="14">
         <v>49.59</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="4">
+        <v>49.59</v>
+      </c>
+      <c r="F34" s="16">
+        <v>67.739999999999995</v>
+      </c>
+      <c r="G34" s="4">
+        <v>19.18</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="21">
+        <f>E34/K2</f>
+        <v>0.36327009010328931</v>
+      </c>
+      <c r="F35" s="21">
+        <f>F34/K2</f>
+        <v>0.49622738260933286</v>
+      </c>
+      <c r="G35" s="21">
+        <f>G34/K2</f>
+        <v>0.14050252728737828</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
+++ b/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE-Capstone\Hardware Design\EVCU Rev A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99E1286-D737-4CE3-997D-F79E4404BCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEB43DE-05AB-43F3-8CDF-32ADE9282085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="170">
   <si>
     <t>Value</t>
   </si>
@@ -525,6 +525,27 @@
   </si>
   <si>
     <t>pcb man, major ic, passives</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>SN65HVD230QD</t>
+  </si>
+  <si>
+    <t>IC TRANSCEIVER HALF 1/1 8SOIC</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>1/1 Transceiver Half CANbus 8-SOIC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/texas-instruments/SN65HVD230QD/484968</t>
   </si>
 </sst>
 </file>
@@ -713,7 +734,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -733,8 +754,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -744,8 +766,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1034,11 +1054,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,10 +1067,10 @@
     <col min="2" max="2" width="18.28515625" style="4" customWidth="1"/>
     <col min="3" max="4" width="23.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.28515625" style="4" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="79.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="58" style="4" customWidth="1"/>
     <col min="10" max="10" width="15.140625" style="4" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" style="4" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="4"/>
@@ -1066,7 +1086,9 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1143,7 @@
       </c>
       <c r="K2" s="11">
         <f>SUM(J:J)</f>
-        <v>136.50999999999993</v>
+        <v>142.20999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1244,223 +1266,224 @@
         <v>14.28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>165</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="E7" s="5" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="J7" s="8">
-        <v>9.11</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J8" s="8">
-        <v>1.38</v>
+        <v>9.11</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J9" s="8">
-        <v>0.71</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J10" s="8">
-        <v>1.8</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J11" s="8">
-        <v>0.87</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J12" s="8">
-        <v>0.78</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F13" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J13" s="8">
-        <v>2.06</v>
-      </c>
-      <c r="K13" s="20"/>
+        <v>0.78</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>67</v>
@@ -1470,7 +1493,7 @@
         <v>66</v>
       </c>
       <c r="F14" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>68</v>
@@ -1482,94 +1505,95 @@
         <v>69</v>
       </c>
       <c r="J14" s="8">
-        <v>1.96</v>
-      </c>
+        <v>2.06</v>
+      </c>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F15" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J15" s="8">
-        <v>0.45</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F16" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J16" s="8">
-        <v>0.56000000000000005</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F17" s="5">
         <v>2</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J17" s="8">
         <v>0.56000000000000005</v>
@@ -1577,499 +1601,529 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>89</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F18" s="5">
         <v>2</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J18" s="8">
-        <v>0.3</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>885012206014</v>
+      <c r="A19" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="12">
-        <v>885012206014</v>
+        <v>89</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="F19" s="5">
         <v>2</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J19" s="8">
         <v>0.3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>97</v>
+      <c r="A20" s="12">
+        <v>885012206014</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="E20" s="12">
+        <v>885012206014</v>
       </c>
       <c r="F20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J20" s="8">
-        <v>0.72</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J21" s="8">
-        <v>0.16</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F23" s="5">
         <v>2</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="H23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J23" s="8">
         <v>0.32</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F24" s="5">
         <v>6</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="H24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J24" s="8">
         <v>0.96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0.16</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="F25" s="5">
-        <v>2</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="F26" s="5">
         <v>2</v>
       </c>
       <c r="G26" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="H27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J27" s="8">
         <v>0.44</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F28" s="5">
         <v>1</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="H28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J28" s="8">
         <v>0.16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>61300611121</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="13">
-        <v>61300611121</v>
-      </c>
-      <c r="F28" s="5">
-        <v>2</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J28" s="8">
-        <v>1.04</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
+        <v>61300611121</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="13">
+        <v>61300611121</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" s="8">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <v>1984617</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <v>1984617</v>
-      </c>
-      <c r="F29" s="5">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J29" s="8">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <v>693072010801</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="5">
-        <v>693072010801</v>
       </c>
       <c r="F30" s="5">
         <v>1</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="J30" s="8">
-        <v>5.0199999999999996</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>153</v>
+      <c r="A31" s="12">
+        <v>693072010801</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>153</v>
+        <v>94</v>
+      </c>
+      <c r="E31" s="12">
+        <v>693072010801</v>
       </c>
       <c r="F31" s="5">
         <v>1</v>
       </c>
       <c r="G31" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J31" s="8">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="H32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J32" s="8">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="14">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="14">
         <v>49.59</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="16" t="s">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="4">
         <v>49.59</v>
       </c>
-      <c r="F34" s="16">
-        <v>67.739999999999995</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="F35" s="15">
+        <v>73.44</v>
+      </c>
+      <c r="G35" s="4">
         <v>19.18</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="21">
-        <f>E34/K2</f>
-        <v>0.36327009010328931</v>
-      </c>
-      <c r="F35" s="21">
-        <f>F34/K2</f>
-        <v>0.49622738260933286</v>
-      </c>
-      <c r="G35" s="21">
-        <f>G34/K2</f>
-        <v>0.14050252728737828</v>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E36" s="17">
+        <f>E35/K2</f>
+        <v>0.348709654735954</v>
+      </c>
+      <c r="F36" s="17">
+        <f>F35/K2</f>
+        <v>0.51641937979045094</v>
+      </c>
+      <c r="G36" s="17">
+        <f>G35/K2</f>
+        <v>0.13487096547359542</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="A33:I33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{3F3540AF-92CF-4D86-AAFC-D74F90E4BD37}"/>
@@ -2077,31 +2131,32 @@
     <hyperlink ref="I4" r:id="rId3" xr:uid="{70E96641-DA65-47B4-80A5-EE169E88E5E5}"/>
     <hyperlink ref="I5" r:id="rId4" xr:uid="{218ED680-CFFA-4E53-AFDB-32D601A016FE}"/>
     <hyperlink ref="I6" r:id="rId5" xr:uid="{B4A35373-2A45-4C60-B7F0-8795CE09423A}"/>
-    <hyperlink ref="I7" r:id="rId6" xr:uid="{C4A01BE6-7853-4F51-9613-76BA9A9F8C2D}"/>
-    <hyperlink ref="I8" r:id="rId7" xr:uid="{9AEDAD72-7083-4472-919A-E0DDF0010270}"/>
-    <hyperlink ref="I9" r:id="rId8" xr:uid="{B9FAB1BE-3AAE-4E4B-A0D5-2FB70E9C1AE4}"/>
-    <hyperlink ref="I10" r:id="rId9" xr:uid="{1AE3D033-08AE-4122-AC2F-63603E4FC5D2}"/>
-    <hyperlink ref="I11" r:id="rId10" xr:uid="{7C34C00A-EDD8-4745-9054-77EDF0EB5123}"/>
-    <hyperlink ref="I12" r:id="rId11" xr:uid="{EC50A1A2-0D14-4030-BC18-880628CD4579}"/>
-    <hyperlink ref="I13" r:id="rId12" xr:uid="{58EBA1AD-4B03-4510-A317-166A2435F370}"/>
-    <hyperlink ref="I14" r:id="rId13" xr:uid="{C4E1CB43-81D0-469A-A44B-AAB987EE529F}"/>
-    <hyperlink ref="I15" r:id="rId14" xr:uid="{050CCBEF-6616-49D2-AFF7-823E0BEA0368}"/>
-    <hyperlink ref="I16" r:id="rId15" xr:uid="{9164F1C8-71B2-4E55-8B2D-D53D46C98EEE}"/>
-    <hyperlink ref="I17" r:id="rId16" xr:uid="{952F4C25-B43D-4254-BB1C-32A625164288}"/>
-    <hyperlink ref="I18" r:id="rId17" xr:uid="{543AFC95-D07D-433C-8143-5C3405F232D8}"/>
-    <hyperlink ref="I19" r:id="rId18" xr:uid="{1BA18047-BA72-4DBA-8283-106C57BA6A57}"/>
-    <hyperlink ref="I20" r:id="rId19" xr:uid="{4FF04091-190F-4080-B807-C959FAE045EA}"/>
-    <hyperlink ref="I21" r:id="rId20" xr:uid="{1B38249B-4E29-433C-B9F6-FC03B9AE1DAA}"/>
-    <hyperlink ref="I22" r:id="rId21" xr:uid="{1B8D1368-2CD0-4098-AF2E-B0E1028A7AED}"/>
-    <hyperlink ref="I23" r:id="rId22" xr:uid="{898979A5-FEAD-4DCF-85B3-43004CEE52DD}"/>
-    <hyperlink ref="I24" r:id="rId23" xr:uid="{B2AC82E2-E426-4596-81FB-C0C78DBB74C4}"/>
-    <hyperlink ref="I25" r:id="rId24" xr:uid="{C70145C4-9DD6-4A9D-B907-8F53E809EE65}"/>
-    <hyperlink ref="I26" r:id="rId25" xr:uid="{E213CF88-59DE-4564-9313-C22D47BD50AA}"/>
-    <hyperlink ref="I27" r:id="rId26" xr:uid="{0D82E8F6-D72D-476D-B88F-FACBC5F91199}"/>
-    <hyperlink ref="I28" r:id="rId27" xr:uid="{E8CD3A01-CA32-4757-AF18-5B3E3230EAA1}"/>
-    <hyperlink ref="I29" r:id="rId28" xr:uid="{BA1A0F24-5E7F-4675-BE4A-CFC3B873EAB2}"/>
-    <hyperlink ref="I31" r:id="rId29" xr:uid="{4ECFE6E6-7058-47CC-852C-9406CEEE0D7C}"/>
-    <hyperlink ref="I30" r:id="rId30" xr:uid="{5A56F291-4A99-47F1-A160-A44C7F0BC776}"/>
+    <hyperlink ref="I8" r:id="rId6" xr:uid="{C4A01BE6-7853-4F51-9613-76BA9A9F8C2D}"/>
+    <hyperlink ref="I9" r:id="rId7" xr:uid="{9AEDAD72-7083-4472-919A-E0DDF0010270}"/>
+    <hyperlink ref="I10" r:id="rId8" xr:uid="{B9FAB1BE-3AAE-4E4B-A0D5-2FB70E9C1AE4}"/>
+    <hyperlink ref="I11" r:id="rId9" xr:uid="{1AE3D033-08AE-4122-AC2F-63603E4FC5D2}"/>
+    <hyperlink ref="I12" r:id="rId10" xr:uid="{7C34C00A-EDD8-4745-9054-77EDF0EB5123}"/>
+    <hyperlink ref="I13" r:id="rId11" xr:uid="{EC50A1A2-0D14-4030-BC18-880628CD4579}"/>
+    <hyperlink ref="I14" r:id="rId12" xr:uid="{58EBA1AD-4B03-4510-A317-166A2435F370}"/>
+    <hyperlink ref="I15" r:id="rId13" xr:uid="{C4E1CB43-81D0-469A-A44B-AAB987EE529F}"/>
+    <hyperlink ref="I16" r:id="rId14" xr:uid="{050CCBEF-6616-49D2-AFF7-823E0BEA0368}"/>
+    <hyperlink ref="I17" r:id="rId15" xr:uid="{9164F1C8-71B2-4E55-8B2D-D53D46C98EEE}"/>
+    <hyperlink ref="I18" r:id="rId16" xr:uid="{952F4C25-B43D-4254-BB1C-32A625164288}"/>
+    <hyperlink ref="I19" r:id="rId17" xr:uid="{543AFC95-D07D-433C-8143-5C3405F232D8}"/>
+    <hyperlink ref="I20" r:id="rId18" xr:uid="{1BA18047-BA72-4DBA-8283-106C57BA6A57}"/>
+    <hyperlink ref="I21" r:id="rId19" xr:uid="{4FF04091-190F-4080-B807-C959FAE045EA}"/>
+    <hyperlink ref="I22" r:id="rId20" xr:uid="{1B38249B-4E29-433C-B9F6-FC03B9AE1DAA}"/>
+    <hyperlink ref="I23" r:id="rId21" xr:uid="{1B8D1368-2CD0-4098-AF2E-B0E1028A7AED}"/>
+    <hyperlink ref="I24" r:id="rId22" xr:uid="{898979A5-FEAD-4DCF-85B3-43004CEE52DD}"/>
+    <hyperlink ref="I25" r:id="rId23" xr:uid="{B2AC82E2-E426-4596-81FB-C0C78DBB74C4}"/>
+    <hyperlink ref="I26" r:id="rId24" xr:uid="{C70145C4-9DD6-4A9D-B907-8F53E809EE65}"/>
+    <hyperlink ref="I27" r:id="rId25" xr:uid="{E213CF88-59DE-4564-9313-C22D47BD50AA}"/>
+    <hyperlink ref="I28" r:id="rId26" xr:uid="{0D82E8F6-D72D-476D-B88F-FACBC5F91199}"/>
+    <hyperlink ref="I29" r:id="rId27" xr:uid="{E8CD3A01-CA32-4757-AF18-5B3E3230EAA1}"/>
+    <hyperlink ref="I30" r:id="rId28" xr:uid="{BA1A0F24-5E7F-4675-BE4A-CFC3B873EAB2}"/>
+    <hyperlink ref="I32" r:id="rId29" xr:uid="{4ECFE6E6-7058-47CC-852C-9406CEEE0D7C}"/>
+    <hyperlink ref="I31" r:id="rId30" xr:uid="{5A56F291-4A99-47F1-A160-A44C7F0BC776}"/>
+    <hyperlink ref="I7" r:id="rId31" xr:uid="{579967BF-8945-463A-B022-0AA2EE694990}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
+++ b/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE-Capstone\Hardware Design\EVCU Rev A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEB43DE-05AB-43F3-8CDF-32ADE9282085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD324670-21EB-4AA7-89D9-B692D10CA69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -601,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -698,9 +698,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -709,9 +707,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -722,9 +718,20 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
-      </bottom>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -734,38 +741,35 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -773,7 +777,184 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$$-1009]* #,##0.00_-;\-[$$-1009]* #,##0.00_-;_-[$$-1009]* &quot;-&quot;??_-;_-@_-"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -789,6 +970,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}" name="Table1" displayName="Table1" ref="A1:J33" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="9">
+  <autoFilter ref="A1:J33" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{248C3E0F-9C52-4B54-A33B-818856AAF02B}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{E9C5C07F-4A9B-457F-9C1B-E3E843BC7343}" name="PCB Annotation" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{15573915-3498-450E-AB83-228275C33AAA}" name="Value" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{A7C9009E-7A0F-4FD9-BF5B-D917AFA5F1AC}" name="Manufacturer" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{88198F40-6BAA-40F5-AB39-74D4DCC88C15}" name="Mfr. P/N"/>
+    <tableColumn id="6" xr3:uid="{CC1F4E3D-BB49-4387-BF0A-79458263CB94}" name="Quantity" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{20ACDF5C-8707-4781-A0CB-DB1C25E79C1C}" name="Description" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{8C9A800C-EFB8-4995-A415-4AB482E94962}" name="Supplier" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{5F12F91F-9438-4932-882C-E46F49C81777}" name="Supplier Link" dataDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="10" xr3:uid="{10D866B2-5307-4DBB-A183-62BC4CDB5538}" name="Component Cost" dataDxfId="1" dataCellStyle="Currency"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1056,24 +1256,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="23.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="58" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1104,1027 +1303,1024 @@
       <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="10"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="6">
         <v>35.44</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="9">
         <f>SUM(J:J)</f>
         <v>142.20999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <v>2.19</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <v>0.96</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <v>1.87</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>14.28</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>5.7</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <v>9.11</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <v>1.38</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <v>0.71</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <v>1.8</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="6">
         <v>0.87</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="6">
         <v>0.78</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="5">
-        <v>11</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="4">
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="6">
         <v>2.06</v>
       </c>
-      <c r="K14" s="16"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>7</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="6">
         <v>1.96</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>3</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="6">
         <v>0.45</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>2</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="6">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>2</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="6">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>2</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="10">
         <v>885012206014</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <v>885012206014</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>2</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="6">
         <v>0.72</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>1</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="6">
         <v>0.16</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>2</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="6">
         <v>0.32</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>6</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="6">
         <v>0.96</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>1</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="6">
         <v>0.16</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>2</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="6">
         <v>0.32</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>2</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="6">
         <v>0.44</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="6">
         <v>0.16</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="A29" s="11">
         <v>61300611121</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="11">
         <v>61300611121</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>2</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="6">
         <v>1.04</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+      <c r="A30" s="11">
         <v>1984617</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="11">
         <v>1984617</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="6">
         <v>0.88</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="10">
         <v>693072010801</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="10">
         <v>693072010801</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="6">
         <v>5.0199999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="6">
         <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="14">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="17">
         <v>49.59</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="15" t="s">
+      <c r="D35" t="s">
         <v>162</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35">
         <v>49.59</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35">
         <v>73.44</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35">
         <v>19.18</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E36" s="17">
+      <c r="E36" s="13">
         <f>E35/K2</f>
         <v>0.348709654735954</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="13">
         <f>F35/K2</f>
         <v>0.51641937979045094</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="13">
         <f>G35/K2</f>
         <v>0.13487096547359542</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A33:I33"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{3F3540AF-92CF-4D86-AAFC-D74F90E4BD37}"/>
     <hyperlink ref="I3" r:id="rId2" xr:uid="{0298B08B-A7AB-431D-B5A5-36B434DAB8A8}"/>
@@ -2159,5 +2355,8 @@
     <hyperlink ref="I7" r:id="rId31" xr:uid="{579967BF-8945-463A-B022-0AA2EE694990}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId32"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
+++ b/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE-Capstone\Hardware Design\EVCU Rev A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD324670-21EB-4AA7-89D9-B692D10CA69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FD8B9F-CDF7-48F4-B152-5AEF5E33BC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="185">
   <si>
     <t>Value</t>
   </si>
@@ -77,30 +77,6 @@
     <t>https://www.digikey.ca/en/products/detail/stmicroelectronics/STM32L4R9ZIT6/7807676</t>
   </si>
   <si>
-    <t>BD33FC0WEFJ-E2</t>
-  </si>
-  <si>
-    <t>IC REG LINEAR 3.3V 1A 8HTSOP</t>
-  </si>
-  <si>
-    <t>Linear Voltage Regulator IC Positive Fixed 1 Output 1A 8-HTSOP-J</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/rohm-semiconductor/BD33FC0WEFJ-E2/5720873</t>
-  </si>
-  <si>
-    <t>MC7805CDTRKG</t>
-  </si>
-  <si>
-    <t>IC REG LINEAR 5V 1A DPAK</t>
-  </si>
-  <si>
-    <t>Linear Voltage Regulator IC Positive Fixed 1 Output 1A DPAK</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/onsemi/MC7805CDTRKG/921037</t>
-  </si>
-  <si>
     <t>X1</t>
   </si>
   <si>
@@ -131,21 +107,6 @@
     <t>https://www.digikey.ca/en/products/detail/tdk-invensense/MPU-6500/4385412</t>
   </si>
   <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>MCP3208T-BI/SL</t>
-  </si>
-  <si>
-    <t>IC ADC 12BIT SAR 16SOIC</t>
-  </si>
-  <si>
-    <t>12 Bit Analog to Digital Converter 4, 8 Input 1 SAR 16-SOIC</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/microchip-technology/MCP3208T-BI-SL/319445</t>
-  </si>
-  <si>
     <t>U7</t>
   </si>
   <si>
@@ -233,9 +194,6 @@
     <t>https://www.digikey.ca/en/products/detail/vishay-general-semiconductor-diodes-division/SMBJ3V3-E3-5B/2147834</t>
   </si>
   <si>
-    <t>C4, C7, C9, C10, C11, C14, C15, C16, C17, C18, C19</t>
-  </si>
-  <si>
     <t>VJ0603Y104JXQPW1BC</t>
   </si>
   <si>
@@ -248,12 +206,6 @@
     <t>https://www.digikey.ca/en/products/detail/vishay-vitramon/VJ0603Y104JXQPW1BC/8305311</t>
   </si>
   <si>
-    <t>C20, C21, C24, C25, C26, C28, C29</t>
-  </si>
-  <si>
-    <t>C1, C8, C12</t>
-  </si>
-  <si>
     <t>CL10A475KP8NNNC</t>
   </si>
   <si>
@@ -266,39 +218,6 @@
     <t>https://www.digikey.ca/en/products/detail/samsung-electro-mechanics/CL10A475KP8NNNC/3886702</t>
   </si>
   <si>
-    <t>C2, C22</t>
-  </si>
-  <si>
-    <t>CL10A106KP8NNNC</t>
-  </si>
-  <si>
-    <t>CAP CER 10UF 10V X5R 0603</t>
-  </si>
-  <si>
-    <t>10 µF ±10% 10V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/samsung-electro-mechanics/CL10A106KP8NNNC/3886850</t>
-  </si>
-  <si>
-    <t>GRM188R61A334KA61D</t>
-  </si>
-  <si>
-    <t>C3, C13</t>
-  </si>
-  <si>
-    <t>CAP CER 0.33UF 10V X5R 0603</t>
-  </si>
-  <si>
-    <t>0.33 µF ±10% 10V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/murata-electronics/GRM188R61A334KA61D/587064</t>
-  </si>
-  <si>
-    <t>C5, C23</t>
-  </si>
-  <si>
     <t>CAP CER 1UF 10V X7R 0603</t>
   </si>
   <si>
@@ -335,21 +254,6 @@
     <t>L1</t>
   </si>
   <si>
-    <t>FIXED IND 39NH 1A 150 MOHM SMD</t>
-  </si>
-  <si>
-    <t>TE Connectivity Passive Product</t>
-  </si>
-  <si>
-    <t>39 nH Unshielded Wirewound Inductor 1 A 150mOhm Max Nonstandard</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/te-connectivity-passive-product/36502C39NJTDG/5399639</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>R6, R7</t>
   </si>
   <si>
@@ -368,9 +272,6 @@
     <t>R19</t>
   </si>
   <si>
-    <t>J2</t>
-  </si>
-  <si>
     <t>J4</t>
   </si>
   <si>
@@ -521,12 +422,6 @@
     <t>https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/693072010801/3124584</t>
   </si>
   <si>
-    <t>JLCPCB PCB Manufacturing Estimate</t>
-  </si>
-  <si>
-    <t>pcb man, major ic, passives</t>
-  </si>
-  <si>
     <t>U6</t>
   </si>
   <si>
@@ -546,6 +441,156 @@
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/texas-instruments/SN65HVD230QD/484968</t>
+  </si>
+  <si>
+    <t>AP62250WU-7</t>
+  </si>
+  <si>
+    <t>DCDC CONV HV BUCK TSOT26 T&amp;R 3K</t>
+  </si>
+  <si>
+    <t>Diodes Incorporated</t>
+  </si>
+  <si>
+    <t>Buck Switching Regulator IC Positive Adjustable 0.8V 1 Output 2.5A SOT-23-6 Thin, TSOT-23-6</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/diodes-incorporated/AP62250WU-7/12349212</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>GRM188R71A225KE15D</t>
+  </si>
+  <si>
+    <t>CAP CER 2.2UF 10V X7R 0603</t>
+  </si>
+  <si>
+    <t>Murata Electronics</t>
+  </si>
+  <si>
+    <t>2.2 µF ±10% 10V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/murata-electronics/GRM188R71A225KE15D/1033256</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C1608X5R1A226M080AC</t>
+  </si>
+  <si>
+    <t>CAP CER 22UF 10V X5R 0603</t>
+  </si>
+  <si>
+    <t>TDK Corporation</t>
+  </si>
+  <si>
+    <t>22 µF ±20% 10V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/tdk-corporation/C1608X5R1A226M080AC/3661560</t>
+  </si>
+  <si>
+    <t>J2, J6</t>
+  </si>
+  <si>
+    <t>C1, C8</t>
+  </si>
+  <si>
+    <t>C13, C23, C12</t>
+  </si>
+  <si>
+    <t>AZ1084CD-3.3TRG1</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 3.3V 5A TO252-2</t>
+  </si>
+  <si>
+    <t>Linear Voltage Regulator IC Positive Fixed 1 Output 5A TO-252-3</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>CIGT252010EH2R2MNE</t>
+  </si>
+  <si>
+    <t>FIXED IND 2.2UH 2.4A 80MOHM SMD</t>
+  </si>
+  <si>
+    <t>2.2 µH Unshielded Thin Film Inductor 2.4 A 80mOhm Max 1008 (2520 Metric)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/samsung-electro-mechanics/CIGT252010EH2R2MNE/7041252</t>
+  </si>
+  <si>
+    <t>R1, R3</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF5232V</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>RES SMD 52.3K OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>52.3 kOhms ±1% 0.125W, 1/8W Chip Resistor 0805 (2012 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/panasonic-electronic-components/ERJ-6ENF5232V/111615</t>
+  </si>
+  <si>
+    <t>CL10A106MA8NRNC</t>
+  </si>
+  <si>
+    <t>10 µF ±20% 25V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>C3, C2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/samsung-electro-mechanics/CL10A106MA8NRNC/3887527</t>
+  </si>
+  <si>
+    <t>Vishay Vitramon</t>
+  </si>
+  <si>
+    <t>C20, C24, C25, C26, C28, C29</t>
+  </si>
+  <si>
+    <t>C4, C7, C9, C10, C11, C15, C16, C17, C18, C19, C22, C10, C21</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/diodes-incorporated/AZ1084CD-3-3TRG1/4470961?s=N4IgTCBcDaIIIC0CMAGAHAFgMIBEC0AzAHQEAqASgOJIgC6AvkA</t>
+  </si>
+  <si>
+    <t>TDK InvenSense</t>
+  </si>
+  <si>
+    <t>FIXED IND 100NH 8A 8 MOHM SMD</t>
+  </si>
+  <si>
+    <t>TFM322512ALMAR10MTAA</t>
+  </si>
+  <si>
+    <t>100 nH Unshielded Thin Film Inductor 8 A 8mOhm Max 1210 (3225 Metric)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/tdk-corporation/TFM322512ALMAR10MTAA/16754576</t>
+  </si>
+  <si>
+    <t>Vishay General Semiconductor - Diodes Division</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>ECS Inc.</t>
   </si>
 </sst>
 </file>
@@ -581,7 +626,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,14 +639,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC66FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -690,50 +729,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -741,7 +736,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -760,16 +755,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -778,14 +763,6 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -954,6 +931,14 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -973,19 +958,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}" name="Table1" displayName="Table1" ref="A1:J33" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="9">
-  <autoFilter ref="A1:J33" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}" name="Table1" displayName="Table1" ref="A1:J34" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A1:J34" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{248C3E0F-9C52-4B54-A33B-818856AAF02B}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{E9C5C07F-4A9B-457F-9C1B-E3E843BC7343}" name="PCB Annotation" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{15573915-3498-450E-AB83-228275C33AAA}" name="Value" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{A7C9009E-7A0F-4FD9-BF5B-D917AFA5F1AC}" name="Manufacturer" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{E9C5C07F-4A9B-457F-9C1B-E3E843BC7343}" name="PCB Annotation" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{15573915-3498-450E-AB83-228275C33AAA}" name="Value" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{A7C9009E-7A0F-4FD9-BF5B-D917AFA5F1AC}" name="Manufacturer" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{88198F40-6BAA-40F5-AB39-74D4DCC88C15}" name="Mfr. P/N"/>
-    <tableColumn id="6" xr3:uid="{CC1F4E3D-BB49-4387-BF0A-79458263CB94}" name="Quantity" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{20ACDF5C-8707-4781-A0CB-DB1C25E79C1C}" name="Description" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{8C9A800C-EFB8-4995-A415-4AB482E94962}" name="Supplier" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{5F12F91F-9438-4932-882C-E46F49C81777}" name="Supplier Link" dataDxfId="2" dataCellStyle="Hyperlink"/>
-    <tableColumn id="10" xr3:uid="{10D866B2-5307-4DBB-A183-62BC4CDB5538}" name="Component Cost" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{CC1F4E3D-BB49-4387-BF0A-79458263CB94}" name="Quantity" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{20ACDF5C-8707-4781-A0CB-DB1C25E79C1C}" name="Description" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{8C9A800C-EFB8-4995-A415-4AB482E94962}" name="Supplier" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{5F12F91F-9438-4932-882C-E46F49C81777}" name="Supplier Link" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="10" xr3:uid="{10D866B2-5307-4DBB-A183-62BC4CDB5538}" name="Component Cost" dataDxfId="0" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1254,18 +1239,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="4" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="37.28515625" customWidth="1"/>
@@ -1286,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -1304,10 +1290,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="L1" s="8"/>
     </row>
@@ -1316,12 +1302,14 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1342,94 +1330,100 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(J:J)</f>
-        <v>142.20999999999995</v>
+        <v>86.179999999999936</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>156</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="J3" s="6">
-        <v>2.19</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="J4" s="6">
-        <v>0.96</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J5" s="6">
         <v>1.87</v>
@@ -1437,29 +1431,31 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J6" s="6">
         <v>14.28</v>
@@ -1467,31 +1463,31 @@
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="J7" s="6">
         <v>5.7</v>
@@ -1499,365 +1495,387 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E8" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J8" s="6">
-        <v>9.11</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J9" s="6">
-        <v>1.38</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="E10" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J10" s="6">
-        <v>0.71</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="E11" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J11" s="6">
-        <v>1.8</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="E12" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J12" s="6">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="E13" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F13" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="J13" s="6">
-        <v>0.78</v>
-      </c>
+        <v>2.8</v>
+      </c>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="E14" s="4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F14" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="J14" s="6">
-        <v>2.06</v>
-      </c>
-      <c r="K14" s="12"/>
+        <v>1.96</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="E15" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F15" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J15" s="6">
-        <v>1.96</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="E16" s="4" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="F16" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="J16" s="6">
-        <v>0.45</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="E17" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="J17" s="6">
-        <v>0.56000000000000005</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="E18" s="4" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="J18" s="6">
-        <v>0.56000000000000005</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="F19" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="J19" s="6">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1865,13 +1883,13 @@
         <v>885012206014</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="E20" s="10">
         <v>885012206014</v>
@@ -1880,13 +1898,13 @@
         <v>2</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="J20" s="6">
         <v>0.3</v>
@@ -1894,469 +1912,495 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="J21" s="6">
-        <v>0.72</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="J22" s="6">
-        <v>0.16</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="F23" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="J23" s="6">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="E24" s="4" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="F24" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="J24" s="6">
-        <v>0.96</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="4">
+        <v>6</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="4">
         <v>1</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J25" s="6">
+      <c r="G27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" s="6">
         <v>0.16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F27" s="4">
-        <v>2</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J27" s="6">
-        <v>0.44</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="F28" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="J28" s="6">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>61300611121</v>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="11">
-        <v>61300611121</v>
+        <v>105</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="F29" s="4">
         <v>2</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="J29" s="6">
-        <v>1.04</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>1984617</v>
+      <c r="A30" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="11">
-        <v>1984617</v>
+        <v>87</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="J30" s="6">
-        <v>0.88</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="A31" s="11">
+        <v>61300611121</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="11">
+        <v>61300611121</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>1984617</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1984617</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J32" s="6">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
         <v>693072010801</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="B33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="10">
         <v>693072010801</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J31" s="6">
+      <c r="G33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J33" s="6">
         <v>5.0199999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F32" s="4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="4">
         <v>1</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J32" s="6">
+      <c r="G34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" s="6">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="17">
-        <v>49.59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>162</v>
-      </c>
-      <c r="E35">
-        <v>49.59</v>
-      </c>
-      <c r="F35">
-        <v>73.44</v>
-      </c>
-      <c r="G35">
-        <v>19.18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E36" s="13">
-        <f>E35/K2</f>
-        <v>0.348709654735954</v>
-      </c>
-      <c r="F36" s="13">
-        <f>F35/K2</f>
-        <v>0.51641937979045094</v>
-      </c>
-      <c r="G36" s="13">
-        <f>G35/K2</f>
-        <v>0.13487096547359542</v>
-      </c>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{3F3540AF-92CF-4D86-AAFC-D74F90E4BD37}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{0298B08B-A7AB-431D-B5A5-36B434DAB8A8}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{70E96641-DA65-47B4-80A5-EE169E88E5E5}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{218ED680-CFFA-4E53-AFDB-32D601A016FE}"/>
-    <hyperlink ref="I6" r:id="rId5" xr:uid="{B4A35373-2A45-4C60-B7F0-8795CE09423A}"/>
-    <hyperlink ref="I8" r:id="rId6" xr:uid="{C4A01BE6-7853-4F51-9613-76BA9A9F8C2D}"/>
-    <hyperlink ref="I9" r:id="rId7" xr:uid="{9AEDAD72-7083-4472-919A-E0DDF0010270}"/>
-    <hyperlink ref="I10" r:id="rId8" xr:uid="{B9FAB1BE-3AAE-4E4B-A0D5-2FB70E9C1AE4}"/>
-    <hyperlink ref="I11" r:id="rId9" xr:uid="{1AE3D033-08AE-4122-AC2F-63603E4FC5D2}"/>
-    <hyperlink ref="I12" r:id="rId10" xr:uid="{7C34C00A-EDD8-4745-9054-77EDF0EB5123}"/>
-    <hyperlink ref="I13" r:id="rId11" xr:uid="{EC50A1A2-0D14-4030-BC18-880628CD4579}"/>
-    <hyperlink ref="I14" r:id="rId12" xr:uid="{58EBA1AD-4B03-4510-A317-166A2435F370}"/>
-    <hyperlink ref="I15" r:id="rId13" xr:uid="{C4E1CB43-81D0-469A-A44B-AAB987EE529F}"/>
-    <hyperlink ref="I16" r:id="rId14" xr:uid="{050CCBEF-6616-49D2-AFF7-823E0BEA0368}"/>
-    <hyperlink ref="I17" r:id="rId15" xr:uid="{9164F1C8-71B2-4E55-8B2D-D53D46C98EEE}"/>
-    <hyperlink ref="I18" r:id="rId16" xr:uid="{952F4C25-B43D-4254-BB1C-32A625164288}"/>
-    <hyperlink ref="I19" r:id="rId17" xr:uid="{543AFC95-D07D-433C-8143-5C3405F232D8}"/>
-    <hyperlink ref="I20" r:id="rId18" xr:uid="{1BA18047-BA72-4DBA-8283-106C57BA6A57}"/>
-    <hyperlink ref="I21" r:id="rId19" xr:uid="{4FF04091-190F-4080-B807-C959FAE045EA}"/>
-    <hyperlink ref="I22" r:id="rId20" xr:uid="{1B38249B-4E29-433C-B9F6-FC03B9AE1DAA}"/>
-    <hyperlink ref="I23" r:id="rId21" xr:uid="{1B8D1368-2CD0-4098-AF2E-B0E1028A7AED}"/>
-    <hyperlink ref="I24" r:id="rId22" xr:uid="{898979A5-FEAD-4DCF-85B3-43004CEE52DD}"/>
-    <hyperlink ref="I25" r:id="rId23" xr:uid="{B2AC82E2-E426-4596-81FB-C0C78DBB74C4}"/>
-    <hyperlink ref="I26" r:id="rId24" xr:uid="{C70145C4-9DD6-4A9D-B907-8F53E809EE65}"/>
-    <hyperlink ref="I27" r:id="rId25" xr:uid="{E213CF88-59DE-4564-9313-C22D47BD50AA}"/>
-    <hyperlink ref="I28" r:id="rId26" xr:uid="{0D82E8F6-D72D-476D-B88F-FACBC5F91199}"/>
-    <hyperlink ref="I29" r:id="rId27" xr:uid="{E8CD3A01-CA32-4757-AF18-5B3E3230EAA1}"/>
-    <hyperlink ref="I30" r:id="rId28" xr:uid="{BA1A0F24-5E7F-4675-BE4A-CFC3B873EAB2}"/>
-    <hyperlink ref="I32" r:id="rId29" xr:uid="{4ECFE6E6-7058-47CC-852C-9406CEEE0D7C}"/>
-    <hyperlink ref="I31" r:id="rId30" xr:uid="{5A56F291-4A99-47F1-A160-A44C7F0BC776}"/>
-    <hyperlink ref="I7" r:id="rId31" xr:uid="{579967BF-8945-463A-B022-0AA2EE694990}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{218ED680-CFFA-4E53-AFDB-32D601A016FE}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{B4A35373-2A45-4C60-B7F0-8795CE09423A}"/>
+    <hyperlink ref="I8" r:id="rId4" xr:uid="{9AEDAD72-7083-4472-919A-E0DDF0010270}"/>
+    <hyperlink ref="I9" r:id="rId5" xr:uid="{B9FAB1BE-3AAE-4E4B-A0D5-2FB70E9C1AE4}"/>
+    <hyperlink ref="I10" r:id="rId6" xr:uid="{1AE3D033-08AE-4122-AC2F-63603E4FC5D2}"/>
+    <hyperlink ref="I11" r:id="rId7" xr:uid="{7C34C00A-EDD8-4745-9054-77EDF0EB5123}"/>
+    <hyperlink ref="I12" r:id="rId8" xr:uid="{EC50A1A2-0D14-4030-BC18-880628CD4579}"/>
+    <hyperlink ref="I13" r:id="rId9" xr:uid="{58EBA1AD-4B03-4510-A317-166A2435F370}"/>
+    <hyperlink ref="I14" r:id="rId10" xr:uid="{C4E1CB43-81D0-469A-A44B-AAB987EE529F}"/>
+    <hyperlink ref="I15" r:id="rId11" xr:uid="{050CCBEF-6616-49D2-AFF7-823E0BEA0368}"/>
+    <hyperlink ref="I17" r:id="rId12" xr:uid="{543AFC95-D07D-433C-8143-5C3405F232D8}"/>
+    <hyperlink ref="I20" r:id="rId13" xr:uid="{1BA18047-BA72-4DBA-8283-106C57BA6A57}"/>
+    <hyperlink ref="I23" r:id="rId14" xr:uid="{1B38249B-4E29-433C-B9F6-FC03B9AE1DAA}"/>
+    <hyperlink ref="I25" r:id="rId15" xr:uid="{1B8D1368-2CD0-4098-AF2E-B0E1028A7AED}"/>
+    <hyperlink ref="I26" r:id="rId16" xr:uid="{898979A5-FEAD-4DCF-85B3-43004CEE52DD}"/>
+    <hyperlink ref="I27" r:id="rId17" xr:uid="{B2AC82E2-E426-4596-81FB-C0C78DBB74C4}"/>
+    <hyperlink ref="I28" r:id="rId18" xr:uid="{C70145C4-9DD6-4A9D-B907-8F53E809EE65}"/>
+    <hyperlink ref="I29" r:id="rId19" xr:uid="{E213CF88-59DE-4564-9313-C22D47BD50AA}"/>
+    <hyperlink ref="I30" r:id="rId20" xr:uid="{0D82E8F6-D72D-476D-B88F-FACBC5F91199}"/>
+    <hyperlink ref="I31" r:id="rId21" xr:uid="{E8CD3A01-CA32-4757-AF18-5B3E3230EAA1}"/>
+    <hyperlink ref="I32" r:id="rId22" xr:uid="{BA1A0F24-5E7F-4675-BE4A-CFC3B873EAB2}"/>
+    <hyperlink ref="I34" r:id="rId23" xr:uid="{4ECFE6E6-7058-47CC-852C-9406CEEE0D7C}"/>
+    <hyperlink ref="I33" r:id="rId24" xr:uid="{5A56F291-4A99-47F1-A160-A44C7F0BC776}"/>
+    <hyperlink ref="I7" r:id="rId25" xr:uid="{579967BF-8945-463A-B022-0AA2EE694990}"/>
+    <hyperlink ref="I4" r:id="rId26" xr:uid="{D6B44947-C5DA-4D5D-A82C-398632900375}"/>
+    <hyperlink ref="I19" r:id="rId27" xr:uid="{D11688A7-6109-4144-9C8F-50F9630665D7}"/>
+    <hyperlink ref="I18" r:id="rId28" xr:uid="{55E8C403-199E-4FB7-ADE9-91DF10CDD1D3}"/>
+    <hyperlink ref="I22" r:id="rId29" xr:uid="{4D101F41-A83D-412C-A254-F3C589B01AC6}"/>
+    <hyperlink ref="I24" r:id="rId30" xr:uid="{56D8D67E-00BF-443D-B5AA-9AE2E1794F27}"/>
+    <hyperlink ref="I3" r:id="rId31" xr:uid="{4CAFDFB1-B2A1-40EA-8B3C-6CEF3E66EC17}"/>
+    <hyperlink ref="I21" r:id="rId32" xr:uid="{218A3E66-03B7-4FBA-99D0-47C09095B76A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
+++ b/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE-Capstone\Hardware Design\EVCU Rev A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FD8B9F-CDF7-48F4-B152-5AEF5E33BC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C5848D-5DD4-4F05-AA03-D7A7A8C2529C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="201">
   <si>
     <t>Value</t>
   </si>
@@ -503,15 +503,6 @@
     <t>C13, C23, C12</t>
   </si>
   <si>
-    <t>AZ1084CD-3.3TRG1</t>
-  </si>
-  <si>
-    <t>IC REG LINEAR 3.3V 5A TO252-2</t>
-  </si>
-  <si>
-    <t>Linear Voltage Regulator IC Positive Fixed 1 Output 5A TO-252-3</t>
-  </si>
-  <si>
     <t>L2</t>
   </si>
   <si>
@@ -551,9 +542,6 @@
     <t>10 µF ±20% 25V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
   </si>
   <si>
-    <t>C3, C2</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/samsung-electro-mechanics/CL10A106MA8NRNC/3887527</t>
   </si>
   <si>
@@ -566,9 +554,6 @@
     <t>C4, C7, C9, C10, C11, C15, C16, C17, C18, C19, C22, C10, C21</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/diodes-incorporated/AZ1084CD-3-3TRG1/4470961?s=N4IgTCBcDaIIIC0CMAGAHAFgMIBEC0AzAHQEAqASgOJIgC6AvkA</t>
-  </si>
-  <si>
     <t>TDK InvenSense</t>
   </si>
   <si>
@@ -591,6 +576,69 @@
   </si>
   <si>
     <t>ECS Inc.</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>CL31A106MBHNNNE</t>
+  </si>
+  <si>
+    <t>CAP CER 10UF 50V X5R 1206</t>
+  </si>
+  <si>
+    <t>10 µF ±20% 50V Ceramic Capacitor X5R 1206 (3216 Metric)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/samsung-electro-mechanics/CL31A106MBHNNNE/5961220</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>0287001.PXCN</t>
+  </si>
+  <si>
+    <t>FUSE AUTO 1A 32VDC BLADE</t>
+  </si>
+  <si>
+    <t>Littelfuse Inc.</t>
+  </si>
+  <si>
+    <t>1 A AC 32 V DC Fuse Automotive Requires Holder Blade, ATO/ATC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/littelfuse-inc/0287001-PXCN/3102551</t>
+  </si>
+  <si>
+    <t>3557_02</t>
+  </si>
+  <si>
+    <t>FUSE BLOCK BLADE 500V 30A PCB</t>
+  </si>
+  <si>
+    <t>Keystone Electronics</t>
+  </si>
+  <si>
+    <t>Fuse Block 30 A 500V 1 Circuit Blade Through Hole</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/keystone-electronics/3557-2/2137305</t>
+  </si>
+  <si>
+    <t>AZ1117CR-3.3TRG1</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 3.3V 1A SOT89</t>
+  </si>
+  <si>
+    <t>Linear Voltage Regulator IC Positive Fixed 1 Output 1A SOT-89-3</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/diodes-incorporated/AZ1117CR-3-3TRG1/4470988</t>
   </si>
 </sst>
 </file>
@@ -736,7 +784,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -755,6 +803,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -958,8 +1007,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}" name="Table1" displayName="Table1" ref="A1:J34" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="A1:J34" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}" name="Table1" displayName="Table1" ref="A1:J37" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A1:J37" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{248C3E0F-9C52-4B54-A33B-818856AAF02B}" name="Name"/>
     <tableColumn id="2" xr3:uid="{E9C5C07F-4A9B-457F-9C1B-E3E843BC7343}" name="PCB Annotation" dataDxfId="7"/>
@@ -1239,11 +1288,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
@@ -1330,39 +1379,39 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(J:J)</f>
-        <v>86.179999999999936</v>
+        <v>88.879999999999953</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="J3" s="6">
-        <v>0.97</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1408,7 +1457,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
@@ -1440,7 +1489,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
@@ -1536,7 +1585,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>33</v>
@@ -1568,7 +1617,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>38</v>
@@ -1600,7 +1649,7 @@
         <v>44</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>43</v>
@@ -1623,288 +1672,288 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>49</v>
+        <v>188</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="J12" s="6">
-        <v>0.78</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>52</v>
+      <c r="A13" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>52</v>
+        <v>194</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="F13" s="4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="J13" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="K13" s="12"/>
+        <v>2.09</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F14" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J14" s="6">
-        <v>1.96</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F15" s="4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J15" s="6">
-        <v>0.45</v>
-      </c>
+        <v>2.8</v>
+      </c>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>170</v>
+        <v>54</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="J16" s="6">
-        <v>0.76</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J17" s="6">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="F18" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="J18" s="6">
-        <v>1.32</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="J19" s="6">
-        <v>0.21</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>885012206014</v>
+      <c r="A20" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="10">
-        <v>885012206014</v>
+        <v>62</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J20" s="6">
         <v>0.3</v>
@@ -1912,223 +1961,223 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>149</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F21" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="J21" s="6">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="J22" s="6">
-        <v>0.41</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>80</v>
+      <c r="A23" s="10">
+        <v>885012206014</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
+      </c>
+      <c r="E23" s="10">
+        <v>885012206014</v>
       </c>
       <c r="F23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="J23" s="6">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="J24" s="6">
-        <v>0.16</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="F25" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="J25" s="6">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F26" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J26" s="6">
-        <v>0.96</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="J27" s="6">
         <v>0.16</v>
@@ -2136,31 +2185,31 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F28" s="4">
         <v>2</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="J28" s="6">
         <v>0.32</v>
@@ -2168,200 +2217,296 @@
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F29" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="J29" s="6">
-        <v>0.44</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="J30" s="6">
         <v>0.16</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>61300611121</v>
+      <c r="A31" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="11">
-        <v>61300611121</v>
+        <v>87</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J31" s="6">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <v>1984617</v>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="11">
-        <v>1984617</v>
+        <v>105</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="F32" s="4">
         <v>2</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="J32" s="6">
-        <v>1.68</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <v>693072010801</v>
+      <c r="A33" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="10">
-        <v>693072010801</v>
+        <v>87</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>61300611121</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="11">
+        <v>61300611121</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>1984617</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="11">
+        <v>1984617</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J35" s="6">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>693072010801</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="10">
+        <v>693072010801</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="H36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J36" s="6">
         <v>5.0199999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F37" s="4">
         <v>1</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="1" t="s">
+      <c r="H37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J37" s="6">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2372,35 +2517,38 @@
     <hyperlink ref="I9" r:id="rId5" xr:uid="{B9FAB1BE-3AAE-4E4B-A0D5-2FB70E9C1AE4}"/>
     <hyperlink ref="I10" r:id="rId6" xr:uid="{1AE3D033-08AE-4122-AC2F-63603E4FC5D2}"/>
     <hyperlink ref="I11" r:id="rId7" xr:uid="{7C34C00A-EDD8-4745-9054-77EDF0EB5123}"/>
-    <hyperlink ref="I12" r:id="rId8" xr:uid="{EC50A1A2-0D14-4030-BC18-880628CD4579}"/>
-    <hyperlink ref="I13" r:id="rId9" xr:uid="{58EBA1AD-4B03-4510-A317-166A2435F370}"/>
-    <hyperlink ref="I14" r:id="rId10" xr:uid="{C4E1CB43-81D0-469A-A44B-AAB987EE529F}"/>
-    <hyperlink ref="I15" r:id="rId11" xr:uid="{050CCBEF-6616-49D2-AFF7-823E0BEA0368}"/>
-    <hyperlink ref="I17" r:id="rId12" xr:uid="{543AFC95-D07D-433C-8143-5C3405F232D8}"/>
-    <hyperlink ref="I20" r:id="rId13" xr:uid="{1BA18047-BA72-4DBA-8283-106C57BA6A57}"/>
-    <hyperlink ref="I23" r:id="rId14" xr:uid="{1B38249B-4E29-433C-B9F6-FC03B9AE1DAA}"/>
-    <hyperlink ref="I25" r:id="rId15" xr:uid="{1B8D1368-2CD0-4098-AF2E-B0E1028A7AED}"/>
-    <hyperlink ref="I26" r:id="rId16" xr:uid="{898979A5-FEAD-4DCF-85B3-43004CEE52DD}"/>
-    <hyperlink ref="I27" r:id="rId17" xr:uid="{B2AC82E2-E426-4596-81FB-C0C78DBB74C4}"/>
-    <hyperlink ref="I28" r:id="rId18" xr:uid="{C70145C4-9DD6-4A9D-B907-8F53E809EE65}"/>
-    <hyperlink ref="I29" r:id="rId19" xr:uid="{E213CF88-59DE-4564-9313-C22D47BD50AA}"/>
-    <hyperlink ref="I30" r:id="rId20" xr:uid="{0D82E8F6-D72D-476D-B88F-FACBC5F91199}"/>
-    <hyperlink ref="I31" r:id="rId21" xr:uid="{E8CD3A01-CA32-4757-AF18-5B3E3230EAA1}"/>
-    <hyperlink ref="I32" r:id="rId22" xr:uid="{BA1A0F24-5E7F-4675-BE4A-CFC3B873EAB2}"/>
-    <hyperlink ref="I34" r:id="rId23" xr:uid="{4ECFE6E6-7058-47CC-852C-9406CEEE0D7C}"/>
-    <hyperlink ref="I33" r:id="rId24" xr:uid="{5A56F291-4A99-47F1-A160-A44C7F0BC776}"/>
+    <hyperlink ref="I14" r:id="rId8" xr:uid="{EC50A1A2-0D14-4030-BC18-880628CD4579}"/>
+    <hyperlink ref="I15" r:id="rId9" xr:uid="{58EBA1AD-4B03-4510-A317-166A2435F370}"/>
+    <hyperlink ref="I16" r:id="rId10" xr:uid="{C4E1CB43-81D0-469A-A44B-AAB987EE529F}"/>
+    <hyperlink ref="I17" r:id="rId11" xr:uid="{050CCBEF-6616-49D2-AFF7-823E0BEA0368}"/>
+    <hyperlink ref="I20" r:id="rId12" xr:uid="{543AFC95-D07D-433C-8143-5C3405F232D8}"/>
+    <hyperlink ref="I23" r:id="rId13" xr:uid="{1BA18047-BA72-4DBA-8283-106C57BA6A57}"/>
+    <hyperlink ref="I26" r:id="rId14" xr:uid="{1B38249B-4E29-433C-B9F6-FC03B9AE1DAA}"/>
+    <hyperlink ref="I28" r:id="rId15" xr:uid="{1B8D1368-2CD0-4098-AF2E-B0E1028A7AED}"/>
+    <hyperlink ref="I29" r:id="rId16" xr:uid="{898979A5-FEAD-4DCF-85B3-43004CEE52DD}"/>
+    <hyperlink ref="I30" r:id="rId17" xr:uid="{B2AC82E2-E426-4596-81FB-C0C78DBB74C4}"/>
+    <hyperlink ref="I31" r:id="rId18" xr:uid="{C70145C4-9DD6-4A9D-B907-8F53E809EE65}"/>
+    <hyperlink ref="I32" r:id="rId19" xr:uid="{E213CF88-59DE-4564-9313-C22D47BD50AA}"/>
+    <hyperlink ref="I33" r:id="rId20" xr:uid="{0D82E8F6-D72D-476D-B88F-FACBC5F91199}"/>
+    <hyperlink ref="I34" r:id="rId21" xr:uid="{E8CD3A01-CA32-4757-AF18-5B3E3230EAA1}"/>
+    <hyperlink ref="I35" r:id="rId22" xr:uid="{BA1A0F24-5E7F-4675-BE4A-CFC3B873EAB2}"/>
+    <hyperlink ref="I37" r:id="rId23" xr:uid="{4ECFE6E6-7058-47CC-852C-9406CEEE0D7C}"/>
+    <hyperlink ref="I36" r:id="rId24" xr:uid="{5A56F291-4A99-47F1-A160-A44C7F0BC776}"/>
     <hyperlink ref="I7" r:id="rId25" xr:uid="{579967BF-8945-463A-B022-0AA2EE694990}"/>
     <hyperlink ref="I4" r:id="rId26" xr:uid="{D6B44947-C5DA-4D5D-A82C-398632900375}"/>
-    <hyperlink ref="I19" r:id="rId27" xr:uid="{D11688A7-6109-4144-9C8F-50F9630665D7}"/>
-    <hyperlink ref="I18" r:id="rId28" xr:uid="{55E8C403-199E-4FB7-ADE9-91DF10CDD1D3}"/>
-    <hyperlink ref="I22" r:id="rId29" xr:uid="{4D101F41-A83D-412C-A254-F3C589B01AC6}"/>
-    <hyperlink ref="I24" r:id="rId30" xr:uid="{56D8D67E-00BF-443D-B5AA-9AE2E1794F27}"/>
-    <hyperlink ref="I3" r:id="rId31" xr:uid="{4CAFDFB1-B2A1-40EA-8B3C-6CEF3E66EC17}"/>
-    <hyperlink ref="I21" r:id="rId32" xr:uid="{218A3E66-03B7-4FBA-99D0-47C09095B76A}"/>
+    <hyperlink ref="I22" r:id="rId27" xr:uid="{D11688A7-6109-4144-9C8F-50F9630665D7}"/>
+    <hyperlink ref="I21" r:id="rId28" xr:uid="{55E8C403-199E-4FB7-ADE9-91DF10CDD1D3}"/>
+    <hyperlink ref="I25" r:id="rId29" xr:uid="{4D101F41-A83D-412C-A254-F3C589B01AC6}"/>
+    <hyperlink ref="I27" r:id="rId30" xr:uid="{56D8D67E-00BF-443D-B5AA-9AE2E1794F27}"/>
+    <hyperlink ref="I24" r:id="rId31" xr:uid="{218A3E66-03B7-4FBA-99D0-47C09095B76A}"/>
+    <hyperlink ref="I18" r:id="rId32" xr:uid="{89B6B579-EDED-421C-96D9-C485F87A4B2E}"/>
+    <hyperlink ref="I12" r:id="rId33" xr:uid="{CF138961-D858-4757-9F89-B6A444BC144B}"/>
+    <hyperlink ref="I13" r:id="rId34" xr:uid="{A88F5F0A-C8B5-4A24-8B05-7BC5872626BE}"/>
+    <hyperlink ref="I3" r:id="rId35" xr:uid="{ADA2069E-DB16-4D7F-92B4-7CE4D3386B93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId36"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
+++ b/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE-Capstone\Hardware Design\EVCU Rev A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C5848D-5DD4-4F05-AA03-D7A7A8C2529C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61994D4A-1AF0-4B7E-8CAD-51505BE7D798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3015" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>https://www.digikey.ca/en/products/detail/tdk-invensense/MPU-6500/4385412</t>
   </si>
   <si>
-    <t>U7</t>
-  </si>
-  <si>
     <t>LM358M/NOPB</t>
   </si>
   <si>
@@ -639,6 +636,9 @@
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/diodes-incorporated/AZ1117CR-3-3TRG1/4470988</t>
+  </si>
+  <si>
+    <t>U4, U7</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1292,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -1339,10 +1339,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="8"/>
     </row>
@@ -1351,13 +1351,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
@@ -1384,31 +1384,31 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="J3" s="6">
         <v>0.69</v>
@@ -1416,31 +1416,31 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="J4" s="6">
         <v>0.77</v>
@@ -1457,7 +1457,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
@@ -1489,7 +1489,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
@@ -1512,31 +1512,31 @@
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="J7" s="6">
         <v>5.7</v>
@@ -1544,31 +1544,31 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="J8" s="6">
         <v>1.38</v>
@@ -1576,31 +1576,31 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="J9" s="6">
         <v>0.71</v>
@@ -1608,31 +1608,31 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="J10" s="6">
         <v>1.8</v>
@@ -1640,31 +1640,31 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="J11" s="6">
         <v>0.87</v>
@@ -1672,31 +1672,31 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="J12" s="6">
         <v>0.49</v>
@@ -1704,31 +1704,31 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="E13" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="J13" s="6">
         <v>2.09</v>
@@ -1736,31 +1736,31 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="D14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="J14" s="6">
         <v>0.78</v>
@@ -1768,31 +1768,31 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="4">
         <v>15</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="J15" s="6">
         <v>2.8</v>
@@ -1801,31 +1801,31 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="4">
         <v>7</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="J16" s="6">
         <v>1.96</v>
@@ -1833,31 +1833,31 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="J17" s="6">
         <v>0.45</v>
@@ -1865,31 +1865,31 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="D18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="J18" s="6">
         <v>0.4</v>
@@ -1897,31 +1897,31 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="J19" s="6">
         <v>0.76</v>
@@ -1929,31 +1929,31 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J20" s="6">
         <v>0.3</v>
@@ -1961,31 +1961,31 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="J21" s="6">
         <v>1.32</v>
@@ -1993,31 +1993,31 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="D22" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="J22" s="6">
         <v>0.21</v>
@@ -2028,13 +2028,13 @@
         <v>885012206014</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="E23" s="10">
         <v>885012206014</v>
@@ -2043,13 +2043,13 @@
         <v>2</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="J23" s="6">
         <v>0.3</v>
@@ -2057,31 +2057,31 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="C24" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="J24" s="6">
         <v>1.52</v>
@@ -2089,31 +2089,31 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="D25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="J25" s="6">
         <v>0.41</v>
@@ -2121,31 +2121,31 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="E26" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="J26" s="6">
         <v>0.16</v>
@@ -2153,31 +2153,31 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="J27" s="6">
         <v>0.16</v>
@@ -2185,31 +2185,31 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F28" s="4">
         <v>2</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="J28" s="6">
         <v>0.32</v>
@@ -2217,31 +2217,31 @@
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="E29" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29" s="4">
         <v>6</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="J29" s="6">
         <v>0.96</v>
@@ -2249,31 +2249,31 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
       </c>
       <c r="G30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="J30" s="6">
         <v>0.16</v>
@@ -2281,31 +2281,31 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
       </c>
       <c r="G31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="J31" s="6">
         <v>0.32</v>
@@ -2313,31 +2313,31 @@
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="E32" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F32" s="4">
         <v>2</v>
       </c>
       <c r="G32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="J32" s="6">
         <v>0.44</v>
@@ -2345,31 +2345,31 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="J33" s="6">
         <v>0.16</v>
@@ -2380,13 +2380,13 @@
         <v>61300611121</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="11">
         <v>61300611121</v>
@@ -2395,13 +2395,13 @@
         <v>2</v>
       </c>
       <c r="G34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="J34" s="6">
         <v>1.04</v>
@@ -2412,13 +2412,13 @@
         <v>1984617</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="E35" s="11">
         <v>1984617</v>
@@ -2427,13 +2427,13 @@
         <v>2</v>
       </c>
       <c r="G35" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="J35" s="6">
         <v>1.68</v>
@@ -2444,13 +2444,13 @@
         <v>693072010801</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" s="10">
         <v>693072010801</v>
@@ -2459,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="J36" s="6">
         <v>5.0199999999999996</v>
@@ -2473,31 +2473,31 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="E37" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="J37" s="6">
         <v>1.1599999999999999</v>

--- a/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
+++ b/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE-Capstone\Hardware Design\EVCU Rev A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61994D4A-1AF0-4B7E-8CAD-51505BE7D798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD481E0-43CE-40FE-B5E3-58EFF4153A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3015" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,9 +548,6 @@
     <t>C20, C24, C25, C26, C28, C29</t>
   </si>
   <si>
-    <t>C4, C7, C9, C10, C11, C15, C16, C17, C18, C19, C22, C10, C21</t>
-  </si>
-  <si>
     <t>TDK InvenSense</t>
   </si>
   <si>
@@ -639,6 +636,9 @@
   </si>
   <si>
     <t>U4, U7</t>
+  </si>
+  <si>
+    <t>C4, C7, C9, C10, C11, C15, C16, C17, C18, C19, C22, C10, C21, C31</t>
   </si>
 </sst>
 </file>
@@ -1291,14 +1291,14 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="39.140625" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
@@ -1357,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
@@ -1384,31 +1384,31 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="J3" s="6">
         <v>0.69</v>
@@ -1457,7 +1457,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
@@ -1489,7 +1489,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
@@ -1547,7 +1547,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>24</v>
@@ -1585,7 +1585,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>32</v>
@@ -1617,7 +1617,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>37</v>
@@ -1649,7 +1649,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>42</v>
@@ -1672,31 +1672,31 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="J12" s="6">
         <v>0.49</v>
@@ -1704,31 +1704,31 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="E13" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="J13" s="6">
         <v>2.09</v>
@@ -1745,7 +1745,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>47</v>
@@ -1771,7 +1771,7 @@
         <v>51</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>52</v>
@@ -1783,7 +1783,7 @@
         <v>51</v>
       </c>
       <c r="F15" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>53</v>
@@ -1865,31 +1865,31 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="J18" s="6">
         <v>0.4</v>
@@ -1900,7 +1900,7 @@
         <v>165</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>166</v>
@@ -2063,25 +2063,25 @@
         <v>70</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>148</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="J24" s="6">
         <v>1.52</v>

--- a/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
+++ b/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE-Capstone\Hardware Design\EVCU Rev A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD481E0-43CE-40FE-B5E3-58EFF4153A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DC4273-FD78-4AB7-A2B2-321D3544DF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3015" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="209">
   <si>
     <t>Value</t>
   </si>
@@ -254,18 +254,9 @@
     <t>R6, R7</t>
   </si>
   <si>
-    <t>R8, R9, R15, R16, R17, R18</t>
-  </si>
-  <si>
     <t>R10</t>
   </si>
   <si>
-    <t>R11, R12</t>
-  </si>
-  <si>
-    <t>R13, R14</t>
-  </si>
-  <si>
     <t>R19</t>
   </si>
   <si>
@@ -371,15 +362,6 @@
     <t>https://www.digikey.ca/en/products/detail/koa-speer-electronics-inc/RK73B2ATTD121J/10236600</t>
   </si>
   <si>
-    <t>CONN HEADER VERT 6POS 2.54MM</t>
-  </si>
-  <si>
-    <t>Connector Header Through Hole 6 position 0.100" (2.54mm)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/61300611121/4846833</t>
-  </si>
-  <si>
     <t>TERM BLK 2POS SIDE ENT 3.5MM PCB</t>
   </si>
   <si>
@@ -437,9 +419,6 @@
     <t>1/1 Transceiver Half CANbus 8-SOIC</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/texas-instruments/SN65HVD230QD/484968</t>
-  </si>
-  <si>
     <t>AP62250WU-7</t>
   </si>
   <si>
@@ -473,9 +452,6 @@
     <t>https://www.digikey.ca/en/products/detail/murata-electronics/GRM188R71A225KE15D/1033256</t>
   </si>
   <si>
-    <t>C5</t>
-  </si>
-  <si>
     <t>C1608X5R1A226M080AC</t>
   </si>
   <si>
@@ -545,9 +521,6 @@
     <t>Vishay Vitramon</t>
   </si>
   <si>
-    <t>C20, C24, C25, C26, C28, C29</t>
-  </si>
-  <si>
     <t>TDK InvenSense</t>
   </si>
   <si>
@@ -638,7 +611,58 @@
     <t>U4, U7</t>
   </si>
   <si>
-    <t>C4, C7, C9, C10, C11, C15, C16, C17, C18, C19, C22, C10, C21, C31</t>
+    <t xml:space="preserve">C5, C32 </t>
+  </si>
+  <si>
+    <t>C4, C7, C9, C10, C11, C15, C16, C17, C18, C19, C22, C31, C33, C20, C24, C25, C26, C28, C29, C30</t>
+  </si>
+  <si>
+    <t>PPPC061LFBN-RC</t>
+  </si>
+  <si>
+    <t>CONN HDR 6POS 0.1 GOLD PCB</t>
+  </si>
+  <si>
+    <t>Sullins Connector Solutions</t>
+  </si>
+  <si>
+    <t>6 Position Header Connector 0.100" (2.54mm) Through Hole Gold</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/sullins-connector-solutions/PPPC061LFBN-RC/810178</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>PJA3405_R1_00001</t>
+  </si>
+  <si>
+    <t>SOT-23, MOSFET</t>
+  </si>
+  <si>
+    <t>Panjit International Inc.</t>
+  </si>
+  <si>
+    <t>P-Channel 30 V 3.6A (Ta) 1.25W (Ta) Surface Mount SOT-23</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/panjit-international-inc/PJA3405-R1-00001/14660219</t>
+  </si>
+  <si>
+    <t>R4, R8, R9, R15, R16, R17, R18, R21, R22</t>
+  </si>
+  <si>
+    <t>R5, R11, R12</t>
+  </si>
+  <si>
+    <t>R13, R14, R20</t>
+  </si>
+  <si>
+    <t>SN65HVD230QDR</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/texas-instruments/SN65HVD230QDR/1574499</t>
   </si>
 </sst>
 </file>
@@ -1292,13 +1316,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="39.140625" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
@@ -1321,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -1357,7 +1381,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
@@ -1379,36 +1403,36 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(J:J)</f>
-        <v>88.879999999999953</v>
+        <v>112.84999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="J3" s="6">
         <v>0.69</v>
@@ -1416,31 +1440,31 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J4" s="6">
         <v>0.77</v>
@@ -1457,7 +1481,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
@@ -1489,7 +1513,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
@@ -1512,34 +1536,34 @@
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="J7" s="6">
-        <v>5.7</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1547,13 +1571,13 @@
         <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>23</v>
@@ -1571,7 +1595,7 @@
         <v>26</v>
       </c>
       <c r="J8" s="6">
-        <v>1.38</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1585,7 +1609,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>32</v>
@@ -1617,7 +1641,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>37</v>
@@ -1635,7 +1659,7 @@
         <v>40</v>
       </c>
       <c r="J10" s="6">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1649,7 +1673,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>42</v>
@@ -1667,156 +1691,155 @@
         <v>45</v>
       </c>
       <c r="J11" s="6">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="J12" s="6">
-        <v>0.49</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>190</v>
+      <c r="A13" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>190</v>
+        <v>178</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="J13" s="6">
-        <v>2.09</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>47</v>
+      <c r="A14" s="14" t="s">
+        <v>181</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>47</v>
+        <v>183</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>181</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>49</v>
+        <v>184</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="J14" s="6">
-        <v>0.78</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F15" s="4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J15" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="K15" s="12"/>
+        <v>0.76</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>169</v>
+      <c r="B16" t="s">
+        <v>192</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="4">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>53</v>
@@ -1828,15 +1851,16 @@
         <v>54</v>
       </c>
       <c r="J16" s="6">
-        <v>1.96</v>
-      </c>
+        <v>5.48</v>
+      </c>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>56</v>
@@ -1860,79 +1884,79 @@
         <v>58</v>
       </c>
       <c r="J17" s="6">
-        <v>0.45</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="J18" s="6">
-        <v>0.4</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="J19" s="6">
-        <v>0.76</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>145</v>
+      <c r="B20" t="s">
+        <v>191</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>59</v>
@@ -1956,71 +1980,71 @@
         <v>63</v>
       </c>
       <c r="J20" s="6">
-        <v>0.3</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J21" s="6">
-        <v>1.32</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J22" s="6">
-        <v>0.21</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2052,7 +2076,7 @@
         <v>68</v>
       </c>
       <c r="J23" s="6">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2063,348 +2087,348 @@
         <v>70</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="J24" s="6">
-        <v>1.52</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="J25" s="6">
-        <v>0.41</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="H26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="J26" s="6">
-        <v>0.16</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J27" s="6">
-        <v>0.16</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F28" s="4">
         <v>2</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J28" s="6">
-        <v>0.32</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="4">
+        <v>9</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="H29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="4">
-        <v>6</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="J29" s="6">
-        <v>0.96</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J30" s="6">
-        <v>0.16</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="4">
-        <v>2</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="J31" s="6">
-        <v>0.32</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="H32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="4">
-        <v>2</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="J32" s="6">
-        <v>0.44</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J33" s="6">
-        <v>0.16</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>61300611121</v>
+      <c r="A34" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="11">
-        <v>61300611121</v>
+        <v>195</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="J34" s="6">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2412,13 +2436,13 @@
         <v>1984617</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E35" s="11">
         <v>1984617</v>
@@ -2427,16 +2451,16 @@
         <v>2</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J35" s="6">
-        <v>1.68</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2444,10 +2468,10 @@
         <v>693072010801</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>66</v>
@@ -2459,48 +2483,48 @@
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J36" s="6">
-        <v>5.0199999999999996</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J37" s="6">
-        <v>1.1599999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2517,38 +2541,39 @@
     <hyperlink ref="I9" r:id="rId5" xr:uid="{B9FAB1BE-3AAE-4E4B-A0D5-2FB70E9C1AE4}"/>
     <hyperlink ref="I10" r:id="rId6" xr:uid="{1AE3D033-08AE-4122-AC2F-63603E4FC5D2}"/>
     <hyperlink ref="I11" r:id="rId7" xr:uid="{7C34C00A-EDD8-4745-9054-77EDF0EB5123}"/>
-    <hyperlink ref="I14" r:id="rId8" xr:uid="{EC50A1A2-0D14-4030-BC18-880628CD4579}"/>
-    <hyperlink ref="I15" r:id="rId9" xr:uid="{58EBA1AD-4B03-4510-A317-166A2435F370}"/>
-    <hyperlink ref="I16" r:id="rId10" xr:uid="{C4E1CB43-81D0-469A-A44B-AAB987EE529F}"/>
-    <hyperlink ref="I17" r:id="rId11" xr:uid="{050CCBEF-6616-49D2-AFF7-823E0BEA0368}"/>
-    <hyperlink ref="I20" r:id="rId12" xr:uid="{543AFC95-D07D-433C-8143-5C3405F232D8}"/>
-    <hyperlink ref="I23" r:id="rId13" xr:uid="{1BA18047-BA72-4DBA-8283-106C57BA6A57}"/>
-    <hyperlink ref="I26" r:id="rId14" xr:uid="{1B38249B-4E29-433C-B9F6-FC03B9AE1DAA}"/>
-    <hyperlink ref="I28" r:id="rId15" xr:uid="{1B8D1368-2CD0-4098-AF2E-B0E1028A7AED}"/>
-    <hyperlink ref="I29" r:id="rId16" xr:uid="{898979A5-FEAD-4DCF-85B3-43004CEE52DD}"/>
-    <hyperlink ref="I30" r:id="rId17" xr:uid="{B2AC82E2-E426-4596-81FB-C0C78DBB74C4}"/>
-    <hyperlink ref="I31" r:id="rId18" xr:uid="{C70145C4-9DD6-4A9D-B907-8F53E809EE65}"/>
-    <hyperlink ref="I32" r:id="rId19" xr:uid="{E213CF88-59DE-4564-9313-C22D47BD50AA}"/>
-    <hyperlink ref="I33" r:id="rId20" xr:uid="{0D82E8F6-D72D-476D-B88F-FACBC5F91199}"/>
-    <hyperlink ref="I34" r:id="rId21" xr:uid="{E8CD3A01-CA32-4757-AF18-5B3E3230EAA1}"/>
-    <hyperlink ref="I35" r:id="rId22" xr:uid="{BA1A0F24-5E7F-4675-BE4A-CFC3B873EAB2}"/>
-    <hyperlink ref="I37" r:id="rId23" xr:uid="{4ECFE6E6-7058-47CC-852C-9406CEEE0D7C}"/>
-    <hyperlink ref="I36" r:id="rId24" xr:uid="{5A56F291-4A99-47F1-A160-A44C7F0BC776}"/>
-    <hyperlink ref="I7" r:id="rId25" xr:uid="{579967BF-8945-463A-B022-0AA2EE694990}"/>
-    <hyperlink ref="I4" r:id="rId26" xr:uid="{D6B44947-C5DA-4D5D-A82C-398632900375}"/>
-    <hyperlink ref="I22" r:id="rId27" xr:uid="{D11688A7-6109-4144-9C8F-50F9630665D7}"/>
-    <hyperlink ref="I21" r:id="rId28" xr:uid="{55E8C403-199E-4FB7-ADE9-91DF10CDD1D3}"/>
-    <hyperlink ref="I25" r:id="rId29" xr:uid="{4D101F41-A83D-412C-A254-F3C589B01AC6}"/>
-    <hyperlink ref="I27" r:id="rId30" xr:uid="{56D8D67E-00BF-443D-B5AA-9AE2E1794F27}"/>
-    <hyperlink ref="I24" r:id="rId31" xr:uid="{218A3E66-03B7-4FBA-99D0-47C09095B76A}"/>
-    <hyperlink ref="I18" r:id="rId32" xr:uid="{89B6B579-EDED-421C-96D9-C485F87A4B2E}"/>
-    <hyperlink ref="I12" r:id="rId33" xr:uid="{CF138961-D858-4757-9F89-B6A444BC144B}"/>
-    <hyperlink ref="I13" r:id="rId34" xr:uid="{A88F5F0A-C8B5-4A24-8B05-7BC5872626BE}"/>
-    <hyperlink ref="I3" r:id="rId35" xr:uid="{ADA2069E-DB16-4D7F-92B4-7CE4D3386B93}"/>
+    <hyperlink ref="I15" r:id="rId8" xr:uid="{EC50A1A2-0D14-4030-BC18-880628CD4579}"/>
+    <hyperlink ref="I16" r:id="rId9" xr:uid="{58EBA1AD-4B03-4510-A317-166A2435F370}"/>
+    <hyperlink ref="I17" r:id="rId10" xr:uid="{050CCBEF-6616-49D2-AFF7-823E0BEA0368}"/>
+    <hyperlink ref="I20" r:id="rId11" xr:uid="{543AFC95-D07D-433C-8143-5C3405F232D8}"/>
+    <hyperlink ref="I23" r:id="rId12" xr:uid="{1BA18047-BA72-4DBA-8283-106C57BA6A57}"/>
+    <hyperlink ref="I26" r:id="rId13" xr:uid="{1B38249B-4E29-433C-B9F6-FC03B9AE1DAA}"/>
+    <hyperlink ref="I28" r:id="rId14" xr:uid="{1B8D1368-2CD0-4098-AF2E-B0E1028A7AED}"/>
+    <hyperlink ref="I29" r:id="rId15" xr:uid="{898979A5-FEAD-4DCF-85B3-43004CEE52DD}"/>
+    <hyperlink ref="I30" r:id="rId16" xr:uid="{B2AC82E2-E426-4596-81FB-C0C78DBB74C4}"/>
+    <hyperlink ref="I31" r:id="rId17" xr:uid="{C70145C4-9DD6-4A9D-B907-8F53E809EE65}"/>
+    <hyperlink ref="I32" r:id="rId18" xr:uid="{E213CF88-59DE-4564-9313-C22D47BD50AA}"/>
+    <hyperlink ref="I33" r:id="rId19" xr:uid="{0D82E8F6-D72D-476D-B88F-FACBC5F91199}"/>
+    <hyperlink ref="I35" r:id="rId20" xr:uid="{BA1A0F24-5E7F-4675-BE4A-CFC3B873EAB2}"/>
+    <hyperlink ref="I37" r:id="rId21" xr:uid="{4ECFE6E6-7058-47CC-852C-9406CEEE0D7C}"/>
+    <hyperlink ref="I36" r:id="rId22" xr:uid="{5A56F291-4A99-47F1-A160-A44C7F0BC776}"/>
+    <hyperlink ref="I4" r:id="rId23" xr:uid="{D6B44947-C5DA-4D5D-A82C-398632900375}"/>
+    <hyperlink ref="I22" r:id="rId24" xr:uid="{D11688A7-6109-4144-9C8F-50F9630665D7}"/>
+    <hyperlink ref="I21" r:id="rId25" xr:uid="{55E8C403-199E-4FB7-ADE9-91DF10CDD1D3}"/>
+    <hyperlink ref="I25" r:id="rId26" xr:uid="{4D101F41-A83D-412C-A254-F3C589B01AC6}"/>
+    <hyperlink ref="I27" r:id="rId27" xr:uid="{56D8D67E-00BF-443D-B5AA-9AE2E1794F27}"/>
+    <hyperlink ref="I24" r:id="rId28" xr:uid="{218A3E66-03B7-4FBA-99D0-47C09095B76A}"/>
+    <hyperlink ref="I18" r:id="rId29" xr:uid="{89B6B579-EDED-421C-96D9-C485F87A4B2E}"/>
+    <hyperlink ref="I13" r:id="rId30" xr:uid="{CF138961-D858-4757-9F89-B6A444BC144B}"/>
+    <hyperlink ref="I14" r:id="rId31" xr:uid="{A88F5F0A-C8B5-4A24-8B05-7BC5872626BE}"/>
+    <hyperlink ref="I3" r:id="rId32" xr:uid="{ADA2069E-DB16-4D7F-92B4-7CE4D3386B93}"/>
+    <hyperlink ref="I12" r:id="rId33" xr:uid="{05E19A70-25FB-43FA-B1BD-EAE9CD11101C}"/>
+    <hyperlink ref="I7" r:id="rId34" xr:uid="{3934F4D3-E242-4BB6-8AFB-9C39B4CD4836}"/>
+    <hyperlink ref="I19" r:id="rId35" xr:uid="{DCCCC5E4-CA17-4F38-93BC-78FB3622D7AA}"/>
+    <hyperlink ref="I34" r:id="rId36" xr:uid="{921BCA73-F455-47B4-A46B-B35F2F88A7A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId36"/>
+    <tablePart r:id="rId37"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
+++ b/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE-Capstone\Hardware Design\EVCU Rev A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DC4273-FD78-4AB7-A2B2-321D3544DF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F099EF-A7DB-4D58-8E55-D338F9462E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="217">
   <si>
     <t>Value</t>
   </si>
@@ -374,9 +374,6 @@
     <t>https://www.digikey.ca/en/products/detail/phoenix-contact/1984617/950849</t>
   </si>
   <si>
-    <t>J1, J3</t>
-  </si>
-  <si>
     <t>A-DS 09 A/KG-T4S</t>
   </si>
   <si>
@@ -467,9 +464,6 @@
     <t>https://www.digikey.ca/en/products/detail/tdk-corporation/C1608X5R1A226M080AC/3661560</t>
   </si>
   <si>
-    <t>J2, J6</t>
-  </si>
-  <si>
     <t>C1, C8</t>
   </si>
   <si>
@@ -663,6 +657,36 @@
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/texas-instruments/SN65HVD230QDR/1574499</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>TERM BLK 6POS SIDE ENT 3.5MM PCB</t>
+  </si>
+  <si>
+    <t>6 Position Wire to Board Terminal Block Horizontal with Board 0.138" (3.50mm) Through Hole</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/phoenix-contact/1984659/950852</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 2POS 2.54MM</t>
+  </si>
+  <si>
+    <t>Connector Header Through Hole 2 position 0.100" (2.54mm)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/61300211121/4846823</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1055,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}" name="Table1" displayName="Table1" ref="A1:J37" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="A1:J37" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}" name="Table1" displayName="Table1" ref="A1:J39" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A1:J39" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{248C3E0F-9C52-4B54-A33B-818856AAF02B}" name="Name"/>
     <tableColumn id="2" xr3:uid="{E9C5C07F-4A9B-457F-9C1B-E3E843BC7343}" name="PCB Annotation" dataDxfId="7"/>
@@ -1312,11 +1336,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -1381,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
@@ -1403,36 +1427,36 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(J:J)</f>
-        <v>112.84999999999998</v>
+        <v>115.57999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J3" s="6">
         <v>0.69</v>
@@ -1440,31 +1464,31 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="J4" s="6">
         <v>0.77</v>
@@ -1481,7 +1505,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
@@ -1513,7 +1537,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
@@ -1536,31 +1560,31 @@
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J7" s="6">
         <v>4.79</v>
@@ -1571,13 +1595,13 @@
         <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>23</v>
@@ -1609,7 +1633,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>32</v>
@@ -1641,7 +1665,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>37</v>
@@ -1673,7 +1697,7 @@
         <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>42</v>
@@ -1696,31 +1720,31 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J12" s="6">
         <v>0.71</v>
@@ -1728,31 +1752,31 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J13" s="6">
         <v>0.48</v>
@@ -1760,31 +1784,31 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="E14" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J14" s="6">
         <v>2.09</v>
@@ -1801,7 +1825,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>47</v>
@@ -1827,13 +1851,13 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>51</v>
@@ -1860,7 +1884,7 @@
         <v>55</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>56</v>
@@ -1889,31 +1913,31 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J18" s="6">
         <v>2.69</v>
@@ -1921,31 +1945,31 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J19" s="6">
         <v>2.58</v>
@@ -1956,7 +1980,7 @@
         <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>59</v>
@@ -1985,31 +2009,31 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F21" s="4">
         <v>3</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="J21" s="6">
         <v>4.51</v>
@@ -2017,31 +2041,31 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="D22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="J22" s="6">
         <v>1.41</v>
@@ -2087,25 +2111,25 @@
         <v>70</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J24" s="6">
         <v>2.98</v>
@@ -2113,31 +2137,31 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J25" s="6">
         <v>0.8</v>
@@ -2148,7 +2172,7 @@
         <v>76</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>77</v>
@@ -2177,31 +2201,31 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J27" s="6">
         <v>1.41</v>
@@ -2244,7 +2268,7 @@
         <v>86</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>87</v>
@@ -2308,7 +2332,7 @@
         <v>95</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>96</v>
@@ -2340,7 +2364,7 @@
         <v>99</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>100</v>
@@ -2401,31 +2425,31 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="E34" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J34" s="6">
         <v>1.52</v>
@@ -2433,104 +2457,168 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>1984617</v>
+        <v>1984659</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E35" s="11">
-        <v>1984617</v>
+        <v>1984659</v>
       </c>
       <c r="F35" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="J35" s="6">
-        <v>3.44</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>693072010801</v>
+      <c r="A36" s="11">
+        <v>61300211121</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="10">
-        <v>693072010801</v>
+      <c r="E36" s="11">
+        <v>61300211121</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>1984617</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="11">
+        <v>1984617</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J37" s="6">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>693072010801</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="10">
+        <v>693072010801</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J36" s="6">
+      <c r="J38" s="6">
         <v>4.91</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E39" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="4">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="H39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J37" s="6">
+      <c r="J39" s="6">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2553,9 +2641,9 @@
     <hyperlink ref="I31" r:id="rId17" xr:uid="{C70145C4-9DD6-4A9D-B907-8F53E809EE65}"/>
     <hyperlink ref="I32" r:id="rId18" xr:uid="{E213CF88-59DE-4564-9313-C22D47BD50AA}"/>
     <hyperlink ref="I33" r:id="rId19" xr:uid="{0D82E8F6-D72D-476D-B88F-FACBC5F91199}"/>
-    <hyperlink ref="I35" r:id="rId20" xr:uid="{BA1A0F24-5E7F-4675-BE4A-CFC3B873EAB2}"/>
-    <hyperlink ref="I37" r:id="rId21" xr:uid="{4ECFE6E6-7058-47CC-852C-9406CEEE0D7C}"/>
-    <hyperlink ref="I36" r:id="rId22" xr:uid="{5A56F291-4A99-47F1-A160-A44C7F0BC776}"/>
+    <hyperlink ref="I37" r:id="rId20" xr:uid="{BA1A0F24-5E7F-4675-BE4A-CFC3B873EAB2}"/>
+    <hyperlink ref="I39" r:id="rId21" xr:uid="{4ECFE6E6-7058-47CC-852C-9406CEEE0D7C}"/>
+    <hyperlink ref="I38" r:id="rId22" xr:uid="{5A56F291-4A99-47F1-A160-A44C7F0BC776}"/>
     <hyperlink ref="I4" r:id="rId23" xr:uid="{D6B44947-C5DA-4D5D-A82C-398632900375}"/>
     <hyperlink ref="I22" r:id="rId24" xr:uid="{D11688A7-6109-4144-9C8F-50F9630665D7}"/>
     <hyperlink ref="I21" r:id="rId25" xr:uid="{55E8C403-199E-4FB7-ADE9-91DF10CDD1D3}"/>
@@ -2570,10 +2658,12 @@
     <hyperlink ref="I7" r:id="rId34" xr:uid="{3934F4D3-E242-4BB6-8AFB-9C39B4CD4836}"/>
     <hyperlink ref="I19" r:id="rId35" xr:uid="{DCCCC5E4-CA17-4F38-93BC-78FB3622D7AA}"/>
     <hyperlink ref="I34" r:id="rId36" xr:uid="{921BCA73-F455-47B4-A46B-B35F2F88A7A0}"/>
+    <hyperlink ref="I35" r:id="rId37" xr:uid="{074D679F-4197-4FDD-87FC-B849C1D21BA3}"/>
+    <hyperlink ref="I36" r:id="rId38" xr:uid="{2166F854-6725-43CF-BB1B-28FAC89F434F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId37"/>
+    <tablePart r:id="rId39"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
+++ b/Hardware Design/EVCU Rev A/EVCU Rev A BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE-Capstone\Hardware Design\EVCU Rev A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F099EF-A7DB-4D58-8E55-D338F9462E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB522838-C0AC-4239-AC90-AD2987FC83B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="212">
   <si>
     <t>Value</t>
   </si>
@@ -107,18 +107,6 @@
     <t>https://www.digikey.ca/en/products/detail/tdk-invensense/MPU-6500/4385412</t>
   </si>
   <si>
-    <t>LM358M/NOPB</t>
-  </si>
-  <si>
-    <t>IC OPAMP GP 2 CIRCUIT 8SOIC</t>
-  </si>
-  <si>
-    <t>General Purpose Amplifier 2 Circuit 8-SOIC</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/texas-instruments/LM358M-NOPB/32601</t>
-  </si>
-  <si>
     <t>Component Cost</t>
   </si>
   <si>
@@ -323,33 +311,9 @@
     <t>https://www.digikey.ca/en/products/detail/stackpole-electronics-inc/RNCP0805FTD100R/2240209</t>
   </si>
   <si>
-    <t>RK73H2ATTD3302F</t>
-  </si>
-  <si>
-    <t>RES 33K OHM 1% 1/4W 0805</t>
-  </si>
-  <si>
-    <t>33 kOhms ±1% 0.25W, 1/4W Chip Resistor 0805 (2012 Metric) Automotive AEC-Q200, Moisture Resistant Thick Film</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/koa-speer-electronics-inc/RK73H2ATTD3302F/10234099</t>
-  </si>
-  <si>
-    <t>ERJ-PB6D3402V</t>
-  </si>
-  <si>
-    <t>RES SMD 34K OHM 0.5% 1/4W 0805</t>
-  </si>
-  <si>
     <t>Panasonic Electronic Components</t>
   </si>
   <si>
-    <t>34 kOhms ±0.5% 0.25W, 1/4W Chip Resistor 0805 (2012 Metric) Automotive AEC-Q200, Pulse Withstanding Thick Film</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/panasonic-electronic-components/ERJ-PB6D3402V/6213975</t>
-  </si>
-  <si>
     <t>RK73B2ATTD121J</t>
   </si>
   <si>
@@ -602,9 +566,6 @@
     <t>https://www.digikey.ca/en/products/detail/diodes-incorporated/AZ1117CR-3-3TRG1/4470988</t>
   </si>
   <si>
-    <t>U4, U7</t>
-  </si>
-  <si>
     <t xml:space="preserve">C5, C32 </t>
   </si>
   <si>
@@ -644,15 +605,6 @@
     <t>https://www.digikey.ca/en/products/detail/panjit-international-inc/PJA3405-R1-00001/14660219</t>
   </si>
   <si>
-    <t>R4, R8, R9, R15, R16, R17, R18, R21, R22</t>
-  </si>
-  <si>
-    <t>R5, R11, R12</t>
-  </si>
-  <si>
-    <t>R13, R14, R20</t>
-  </si>
-  <si>
     <t>SN65HVD230QDR</t>
   </si>
   <si>
@@ -687,6 +639,39 @@
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/61300211121/4846823</t>
+  </si>
+  <si>
+    <t>U4, U7, U8</t>
+  </si>
+  <si>
+    <t>IC OPAMP GP 1 CIRCUIT SOT25</t>
+  </si>
+  <si>
+    <t>LMV321WG-7</t>
+  </si>
+  <si>
+    <t>General Purpose Amplifier 1 Circuit Rail-to-Rail SOT-25</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/diodes-incorporated/LMV321WG-7/2182582</t>
+  </si>
+  <si>
+    <t>R5, R9, R12</t>
+  </si>
+  <si>
+    <t>RC0805JR-0751KL</t>
+  </si>
+  <si>
+    <t>RES 51K OHM 5% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>51 kOhms ±5% 0.125W, 1/8W Chip Resistor 0805 (2012 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/RC0805JR-0751KL/728346</t>
+  </si>
+  <si>
+    <t>R4, R11, R8</t>
   </si>
 </sst>
 </file>
@@ -1055,8 +1040,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}" name="Table1" displayName="Table1" ref="A1:J39" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="A1:J39" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}" name="Table1" displayName="Table1" ref="A1:J38" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A1:J38" xr:uid="{905357C1-F7F1-412E-A209-434B870DFCD4}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{248C3E0F-9C52-4B54-A33B-818856AAF02B}" name="Name"/>
     <tableColumn id="2" xr3:uid="{E9C5C07F-4A9B-457F-9C1B-E3E843BC7343}" name="PCB Annotation" dataDxfId="7"/>
@@ -1336,11 +1321,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -1387,10 +1372,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L1" s="8"/>
     </row>
@@ -1399,13 +1384,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
@@ -1427,36 +1412,36 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(J:J)</f>
-        <v>115.57999999999998</v>
+        <v>118.61</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J3" s="6">
         <v>0.69</v>
@@ -1464,31 +1449,31 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J4" s="6">
         <v>0.77</v>
@@ -1505,7 +1490,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>14</v>
@@ -1537,7 +1522,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
@@ -1560,31 +1545,31 @@
     </row>
     <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="J7" s="6">
         <v>4.79</v>
@@ -1592,63 +1577,63 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="F8" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="J8" s="6">
-        <v>3.62</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J9" s="6">
         <v>0.71</v>
@@ -1656,31 +1641,31 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J10" s="6">
         <v>1.76</v>
@@ -1688,31 +1673,31 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J11" s="6">
         <v>0.79</v>
@@ -1720,31 +1705,31 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="J12" s="6">
         <v>0.71</v>
@@ -1752,31 +1737,31 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="J13" s="6">
         <v>0.48</v>
@@ -1784,31 +1769,31 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="J14" s="6">
         <v>2.09</v>
@@ -1816,31 +1801,31 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J15" s="6">
         <v>0.76</v>
@@ -1848,31 +1833,31 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F16" s="4">
         <v>21</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J16" s="6">
         <v>5.48</v>
@@ -1881,31 +1866,31 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J17" s="6">
         <v>1.7</v>
@@ -1913,31 +1898,31 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="J18" s="6">
         <v>2.69</v>
@@ -1945,31 +1930,31 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="J19" s="6">
         <v>2.58</v>
@@ -1977,31 +1962,31 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J20" s="6">
         <v>0.55000000000000004</v>
@@ -2009,31 +1994,31 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F21" s="4">
         <v>3</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="J21" s="6">
         <v>4.51</v>
@@ -2041,31 +2026,31 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J22" s="6">
         <v>1.41</v>
@@ -2076,13 +2061,13 @@
         <v>885012206014</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E23" s="10">
         <v>885012206014</v>
@@ -2091,13 +2076,13 @@
         <v>2</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J23" s="6">
         <v>0.33</v>
@@ -2105,31 +2090,31 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="J24" s="6">
         <v>2.98</v>
@@ -2137,31 +2122,31 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="J25" s="6">
         <v>0.8</v>
@@ -2169,31 +2154,31 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F26" s="4">
         <v>2</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J26" s="6">
         <v>1.1200000000000001</v>
@@ -2201,31 +2186,31 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J27" s="6">
         <v>1.41</v>
@@ -2233,31 +2218,31 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F28" s="4">
         <v>2</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J28" s="6">
         <v>0.6</v>
@@ -2265,31 +2250,31 @@
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F29" s="4">
         <v>9</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J29" s="6">
         <v>1.1399999999999999</v>
@@ -2297,31 +2282,31 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J30" s="6">
         <v>1.1200000000000001</v>
@@ -2329,118 +2314,118 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>95</v>
+        <v>207</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>95</v>
+        <v>207</v>
       </c>
       <c r="F31" s="4">
         <v>3</v>
       </c>
       <c r="G31" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>1984659</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J31" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="4">
-        <v>3</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J32" s="6">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="E34" s="11">
+        <v>1984659</v>
+      </c>
+      <c r="F34" s="4">
         <v>1</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J33" s="6">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="F34" s="4">
-        <v>2</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>194</v>
@@ -2452,218 +2437,185 @@
         <v>195</v>
       </c>
       <c r="J34" s="6">
-        <v>1.52</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>1984659</v>
+        <v>61300211121</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="E35" s="11">
-        <v>1984659</v>
+        <v>61300211121</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="J35" s="6">
-        <v>2.54</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>61300211121</v>
+        <v>1984617</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>214</v>
+        <v>96</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="E36" s="11">
-        <v>61300211121</v>
+        <v>1984617</v>
       </c>
       <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J36" s="6">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>693072010801</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="10">
+        <v>693072010801</v>
+      </c>
+      <c r="F37" s="4">
         <v>1</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="J36" s="6">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
-        <v>1984617</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="11">
-        <v>1984617</v>
-      </c>
-      <c r="F37" s="4">
-        <v>2</v>
-      </c>
       <c r="G37" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J37" s="6">
-        <v>3.44</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
-        <v>693072010801</v>
+      <c r="A38" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="10">
-        <v>693072010801</v>
+        <v>102</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J38" s="6">
-        <v>4.91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J39" s="6">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{3F3540AF-92CF-4D86-AAFC-D74F90E4BD37}"/>
     <hyperlink ref="I5" r:id="rId2" xr:uid="{218ED680-CFFA-4E53-AFDB-32D601A016FE}"/>
     <hyperlink ref="I6" r:id="rId3" xr:uid="{B4A35373-2A45-4C60-B7F0-8795CE09423A}"/>
-    <hyperlink ref="I8" r:id="rId4" xr:uid="{9AEDAD72-7083-4472-919A-E0DDF0010270}"/>
-    <hyperlink ref="I9" r:id="rId5" xr:uid="{B9FAB1BE-3AAE-4E4B-A0D5-2FB70E9C1AE4}"/>
-    <hyperlink ref="I10" r:id="rId6" xr:uid="{1AE3D033-08AE-4122-AC2F-63603E4FC5D2}"/>
-    <hyperlink ref="I11" r:id="rId7" xr:uid="{7C34C00A-EDD8-4745-9054-77EDF0EB5123}"/>
-    <hyperlink ref="I15" r:id="rId8" xr:uid="{EC50A1A2-0D14-4030-BC18-880628CD4579}"/>
-    <hyperlink ref="I16" r:id="rId9" xr:uid="{58EBA1AD-4B03-4510-A317-166A2435F370}"/>
-    <hyperlink ref="I17" r:id="rId10" xr:uid="{050CCBEF-6616-49D2-AFF7-823E0BEA0368}"/>
-    <hyperlink ref="I20" r:id="rId11" xr:uid="{543AFC95-D07D-433C-8143-5C3405F232D8}"/>
-    <hyperlink ref="I23" r:id="rId12" xr:uid="{1BA18047-BA72-4DBA-8283-106C57BA6A57}"/>
-    <hyperlink ref="I26" r:id="rId13" xr:uid="{1B38249B-4E29-433C-B9F6-FC03B9AE1DAA}"/>
-    <hyperlink ref="I28" r:id="rId14" xr:uid="{1B8D1368-2CD0-4098-AF2E-B0E1028A7AED}"/>
-    <hyperlink ref="I29" r:id="rId15" xr:uid="{898979A5-FEAD-4DCF-85B3-43004CEE52DD}"/>
-    <hyperlink ref="I30" r:id="rId16" xr:uid="{B2AC82E2-E426-4596-81FB-C0C78DBB74C4}"/>
-    <hyperlink ref="I31" r:id="rId17" xr:uid="{C70145C4-9DD6-4A9D-B907-8F53E809EE65}"/>
-    <hyperlink ref="I32" r:id="rId18" xr:uid="{E213CF88-59DE-4564-9313-C22D47BD50AA}"/>
-    <hyperlink ref="I33" r:id="rId19" xr:uid="{0D82E8F6-D72D-476D-B88F-FACBC5F91199}"/>
-    <hyperlink ref="I37" r:id="rId20" xr:uid="{BA1A0F24-5E7F-4675-BE4A-CFC3B873EAB2}"/>
-    <hyperlink ref="I39" r:id="rId21" xr:uid="{4ECFE6E6-7058-47CC-852C-9406CEEE0D7C}"/>
-    <hyperlink ref="I38" r:id="rId22" xr:uid="{5A56F291-4A99-47F1-A160-A44C7F0BC776}"/>
-    <hyperlink ref="I4" r:id="rId23" xr:uid="{D6B44947-C5DA-4D5D-A82C-398632900375}"/>
-    <hyperlink ref="I22" r:id="rId24" xr:uid="{D11688A7-6109-4144-9C8F-50F9630665D7}"/>
-    <hyperlink ref="I21" r:id="rId25" xr:uid="{55E8C403-199E-4FB7-ADE9-91DF10CDD1D3}"/>
-    <hyperlink ref="I25" r:id="rId26" xr:uid="{4D101F41-A83D-412C-A254-F3C589B01AC6}"/>
-    <hyperlink ref="I27" r:id="rId27" xr:uid="{56D8D67E-00BF-443D-B5AA-9AE2E1794F27}"/>
-    <hyperlink ref="I24" r:id="rId28" xr:uid="{218A3E66-03B7-4FBA-99D0-47C09095B76A}"/>
-    <hyperlink ref="I18" r:id="rId29" xr:uid="{89B6B579-EDED-421C-96D9-C485F87A4B2E}"/>
-    <hyperlink ref="I13" r:id="rId30" xr:uid="{CF138961-D858-4757-9F89-B6A444BC144B}"/>
-    <hyperlink ref="I14" r:id="rId31" xr:uid="{A88F5F0A-C8B5-4A24-8B05-7BC5872626BE}"/>
-    <hyperlink ref="I3" r:id="rId32" xr:uid="{ADA2069E-DB16-4D7F-92B4-7CE4D3386B93}"/>
-    <hyperlink ref="I12" r:id="rId33" xr:uid="{05E19A70-25FB-43FA-B1BD-EAE9CD11101C}"/>
-    <hyperlink ref="I7" r:id="rId34" xr:uid="{3934F4D3-E242-4BB6-8AFB-9C39B4CD4836}"/>
-    <hyperlink ref="I19" r:id="rId35" xr:uid="{DCCCC5E4-CA17-4F38-93BC-78FB3622D7AA}"/>
-    <hyperlink ref="I34" r:id="rId36" xr:uid="{921BCA73-F455-47B4-A46B-B35F2F88A7A0}"/>
-    <hyperlink ref="I35" r:id="rId37" xr:uid="{074D679F-4197-4FDD-87FC-B849C1D21BA3}"/>
-    <hyperlink ref="I36" r:id="rId38" xr:uid="{2166F854-6725-43CF-BB1B-28FAC89F434F}"/>
+    <hyperlink ref="I9" r:id="rId4" xr:uid="{B9FAB1BE-3AAE-4E4B-A0D5-2FB70E9C1AE4}"/>
+    <hyperlink ref="I10" r:id="rId5" xr:uid="{1AE3D033-08AE-4122-AC2F-63603E4FC5D2}"/>
+    <hyperlink ref="I11" r:id="rId6" xr:uid="{7C34C00A-EDD8-4745-9054-77EDF0EB5123}"/>
+    <hyperlink ref="I15" r:id="rId7" xr:uid="{EC50A1A2-0D14-4030-BC18-880628CD4579}"/>
+    <hyperlink ref="I16" r:id="rId8" xr:uid="{58EBA1AD-4B03-4510-A317-166A2435F370}"/>
+    <hyperlink ref="I17" r:id="rId9" xr:uid="{050CCBEF-6616-49D2-AFF7-823E0BEA0368}"/>
+    <hyperlink ref="I20" r:id="rId10" xr:uid="{543AFC95-D07D-433C-8143-5C3405F232D8}"/>
+    <hyperlink ref="I23" r:id="rId11" xr:uid="{1BA18047-BA72-4DBA-8283-106C57BA6A57}"/>
+    <hyperlink ref="I26" r:id="rId12" xr:uid="{1B38249B-4E29-433C-B9F6-FC03B9AE1DAA}"/>
+    <hyperlink ref="I28" r:id="rId13" xr:uid="{1B8D1368-2CD0-4098-AF2E-B0E1028A7AED}"/>
+    <hyperlink ref="I29" r:id="rId14" xr:uid="{898979A5-FEAD-4DCF-85B3-43004CEE52DD}"/>
+    <hyperlink ref="I30" r:id="rId15" xr:uid="{B2AC82E2-E426-4596-81FB-C0C78DBB74C4}"/>
+    <hyperlink ref="I32" r:id="rId16" xr:uid="{0D82E8F6-D72D-476D-B88F-FACBC5F91199}"/>
+    <hyperlink ref="I36" r:id="rId17" xr:uid="{BA1A0F24-5E7F-4675-BE4A-CFC3B873EAB2}"/>
+    <hyperlink ref="I38" r:id="rId18" xr:uid="{4ECFE6E6-7058-47CC-852C-9406CEEE0D7C}"/>
+    <hyperlink ref="I37" r:id="rId19" xr:uid="{5A56F291-4A99-47F1-A160-A44C7F0BC776}"/>
+    <hyperlink ref="I4" r:id="rId20" xr:uid="{D6B44947-C5DA-4D5D-A82C-398632900375}"/>
+    <hyperlink ref="I22" r:id="rId21" xr:uid="{D11688A7-6109-4144-9C8F-50F9630665D7}"/>
+    <hyperlink ref="I21" r:id="rId22" xr:uid="{55E8C403-199E-4FB7-ADE9-91DF10CDD1D3}"/>
+    <hyperlink ref="I25" r:id="rId23" xr:uid="{4D101F41-A83D-412C-A254-F3C589B01AC6}"/>
+    <hyperlink ref="I27" r:id="rId24" xr:uid="{56D8D67E-00BF-443D-B5AA-9AE2E1794F27}"/>
+    <hyperlink ref="I24" r:id="rId25" xr:uid="{218A3E66-03B7-4FBA-99D0-47C09095B76A}"/>
+    <hyperlink ref="I18" r:id="rId26" xr:uid="{89B6B579-EDED-421C-96D9-C485F87A4B2E}"/>
+    <hyperlink ref="I13" r:id="rId27" xr:uid="{CF138961-D858-4757-9F89-B6A444BC144B}"/>
+    <hyperlink ref="I14" r:id="rId28" xr:uid="{A88F5F0A-C8B5-4A24-8B05-7BC5872626BE}"/>
+    <hyperlink ref="I3" r:id="rId29" xr:uid="{ADA2069E-DB16-4D7F-92B4-7CE4D3386B93}"/>
+    <hyperlink ref="I12" r:id="rId30" xr:uid="{05E19A70-25FB-43FA-B1BD-EAE9CD11101C}"/>
+    <hyperlink ref="I7" r:id="rId31" xr:uid="{3934F4D3-E242-4BB6-8AFB-9C39B4CD4836}"/>
+    <hyperlink ref="I19" r:id="rId32" xr:uid="{DCCCC5E4-CA17-4F38-93BC-78FB3622D7AA}"/>
+    <hyperlink ref="I33" r:id="rId33" xr:uid="{921BCA73-F455-47B4-A46B-B35F2F88A7A0}"/>
+    <hyperlink ref="I34" r:id="rId34" xr:uid="{074D679F-4197-4FDD-87FC-B849C1D21BA3}"/>
+    <hyperlink ref="I35" r:id="rId35" xr:uid="{2166F854-6725-43CF-BB1B-28FAC89F434F}"/>
+    <hyperlink ref="I31" r:id="rId36" xr:uid="{BD409F46-5F70-4411-881E-3B4D846D8DE5}"/>
+    <hyperlink ref="I8" r:id="rId37" xr:uid="{C1DB8B7C-7E12-488C-BDC9-7D2143C6704B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId39"/>
+    <tablePart r:id="rId38"/>
   </tableParts>
 </worksheet>
 </file>